--- a/Backend/public/data.xlsx
+++ b/Backend/public/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEEZAN MALEK\Desktop\GUPL 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GUPL\CPL\Backend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C7426-6861-4424-BEA4-11A2D015BB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B9908-909D-44A9-B736-D2C2932AB3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{CCCAAE7B-281F-4B93-A40E-29A029BF0752}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="880">
   <si>
     <t>Sr No</t>
   </si>
@@ -2255,18 +2255,6 @@
   </si>
   <si>
     <t>PlayersGrade</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -3061,7 +3049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3237,9 +3225,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3261,37 +3246,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3610,14 +3586,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E181D041-78FA-4AE3-B250-35D1090B6B53}">
   <dimension ref="B1:P233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N224" sqref="N224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="60" customWidth="1"/>
     <col min="4" max="4" width="42.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="42.5546875" customWidth="1"/>
     <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
@@ -3697,15 +3673,15 @@
       <c r="F3" s="68">
         <v>1000</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="83">
+      <c r="H3" s="79">
         <v>4</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>3</v>
@@ -3716,8 +3692,8 @@
       <c r="M3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="89" t="s">
-        <v>883</v>
+      <c r="N3" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>6</v>
@@ -3734,7 +3710,7 @@
         <v>692</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E4" s="69">
         <v>300</v>
@@ -3742,15 +3718,15 @@
       <c r="F4" s="69">
         <v>300</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="80">
         <v>2</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>9</v>
@@ -3761,8 +3737,8 @@
       <c r="M4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="89" t="s">
-        <v>883</v>
+      <c r="N4" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>11</v>
@@ -3787,15 +3763,15 @@
       <c r="F5" s="69">
         <v>500</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="81">
         <v>2</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>3</v>
@@ -3806,8 +3782,8 @@
       <c r="M5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="89" t="s">
-        <v>883</v>
+      <c r="N5" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>14</v>
@@ -3832,15 +3808,15 @@
       <c r="F6" s="69">
         <v>500</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="81">
         <v>2</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>3</v>
@@ -3851,8 +3827,8 @@
       <c r="M6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="89" t="s">
-        <v>883</v>
+      <c r="N6" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O6" s="11" t="s">
         <v>19</v>
@@ -3877,15 +3853,15 @@
       <c r="F7" s="69">
         <v>300</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="81">
         <v>4</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>21</v>
@@ -3894,8 +3870,8 @@
         <v>17</v>
       </c>
       <c r="M7" s="13"/>
-      <c r="N7" s="89" t="s">
-        <v>883</v>
+      <c r="N7" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>22</v>
@@ -3920,15 +3896,15 @@
       <c r="F8" s="69">
         <v>500</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="80">
         <v>4</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>21</v>
@@ -3937,8 +3913,8 @@
         <v>17</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="N8" s="89" t="s">
-        <v>883</v>
+      <c r="N8" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>25</v>
@@ -3963,15 +3939,15 @@
       <c r="F9" s="69">
         <v>300</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="81">
         <v>2</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>21</v>
@@ -3980,8 +3956,8 @@
         <v>4</v>
       </c>
       <c r="M9" s="13"/>
-      <c r="N9" s="89" t="s">
-        <v>883</v>
+      <c r="N9" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>28</v>
@@ -4006,15 +3982,15 @@
       <c r="F10" s="69">
         <v>300</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="80">
         <v>2</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>3</v>
@@ -4025,8 +4001,8 @@
       <c r="M10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="89" t="s">
-        <v>883</v>
+      <c r="N10" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>32</v>
@@ -4051,15 +4027,15 @@
       <c r="F11" s="69">
         <v>300</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="81">
         <v>4</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>21</v>
@@ -4068,8 +4044,8 @@
         <v>4</v>
       </c>
       <c r="M11" s="13"/>
-      <c r="N11" s="89" t="s">
-        <v>883</v>
+      <c r="N11" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>35</v>
@@ -4094,15 +4070,15 @@
       <c r="F12" s="69">
         <v>500</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="80">
         <v>2</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>3</v>
@@ -4113,8 +4089,8 @@
       <c r="M12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="89" t="s">
-        <v>883</v>
+      <c r="N12" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>38</v>
@@ -4139,15 +4115,15 @@
       <c r="F13" s="69">
         <v>300</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="81">
         <v>4</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>41</v>
@@ -4158,8 +4134,8 @@
       <c r="M13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="89" t="s">
-        <v>883</v>
+      <c r="N13" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>42</v>
@@ -4184,15 +4160,15 @@
       <c r="F14" s="69">
         <v>500</v>
       </c>
-      <c r="G14" s="74" t="s">
+      <c r="G14" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="81">
         <v>8</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>3</v>
@@ -4203,8 +4179,8 @@
       <c r="M14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="89" t="s">
-        <v>883</v>
+      <c r="N14" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>45</v>
@@ -4229,15 +4205,15 @@
       <c r="F15" s="69">
         <v>300</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="80">
         <v>4</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>41</v>
@@ -4248,8 +4224,8 @@
       <c r="M15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="89" t="s">
-        <v>883</v>
+      <c r="N15" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>49</v>
@@ -4274,15 +4250,15 @@
       <c r="F16" s="69">
         <v>300</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="80">
         <v>2</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>3</v>
@@ -4293,8 +4269,8 @@
       <c r="M16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="89" t="s">
-        <v>883</v>
+      <c r="N16" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>51</v>
@@ -4319,15 +4295,15 @@
       <c r="F17" s="69">
         <v>300</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="80">
         <v>2</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>53</v>
@@ -4336,8 +4312,8 @@
         <v>4</v>
       </c>
       <c r="M17" s="9"/>
-      <c r="N17" s="89" t="s">
-        <v>883</v>
+      <c r="N17" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>54</v>
@@ -4362,15 +4338,15 @@
       <c r="F18" s="69">
         <v>300</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="81">
         <v>2</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>56</v>
@@ -4381,8 +4357,8 @@
       <c r="M18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="89" t="s">
-        <v>883</v>
+      <c r="N18" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O18" s="11" t="s">
         <v>57</v>
@@ -4407,15 +4383,15 @@
       <c r="F19" s="69">
         <v>300</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="80">
         <v>4</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>41</v>
@@ -4426,8 +4402,8 @@
       <c r="M19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="89" t="s">
-        <v>883</v>
+      <c r="N19" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>60</v>
@@ -4452,15 +4428,15 @@
       <c r="F20" s="69">
         <v>500</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="80">
         <v>4</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>53</v>
@@ -4471,8 +4447,8 @@
       <c r="M20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="89" t="s">
-        <v>883</v>
+      <c r="N20" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>63</v>
@@ -4497,15 +4473,15 @@
       <c r="F21" s="69">
         <v>500</v>
       </c>
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="80">
         <v>4</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K21" s="18" t="s">
         <v>66</v>
@@ -4516,8 +4492,8 @@
       <c r="M21" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="89" t="s">
-        <v>883</v>
+      <c r="N21" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>68</v>
@@ -4542,15 +4518,15 @@
       <c r="F22" s="68">
         <v>1000</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="85">
+      <c r="H22" s="81">
         <v>4</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>21</v>
@@ -4561,8 +4537,8 @@
       <c r="M22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="89" t="s">
-        <v>883</v>
+      <c r="N22" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>70</v>
@@ -4587,15 +4563,15 @@
       <c r="F23" s="68">
         <v>1000</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="85">
+      <c r="H23" s="81">
         <v>6</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>21</v>
@@ -4606,8 +4582,8 @@
       <c r="M23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="89" t="s">
-        <v>883</v>
+      <c r="N23" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>72</v>
@@ -4632,15 +4608,15 @@
       <c r="F24" s="69">
         <v>500</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="80">
         <v>4</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>3</v>
@@ -4651,8 +4627,8 @@
       <c r="M24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="89" t="s">
-        <v>883</v>
+      <c r="N24" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>74</v>
@@ -4677,15 +4653,15 @@
       <c r="F25" s="69">
         <v>300</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="80">
         <v>4</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>76</v>
@@ -4696,8 +4672,8 @@
       <c r="M25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="89" t="s">
-        <v>883</v>
+      <c r="N25" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>77</v>
@@ -4722,15 +4698,15 @@
       <c r="F26" s="69">
         <v>500</v>
       </c>
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="85">
+      <c r="H26" s="81">
         <v>4</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>3</v>
@@ -4741,8 +4717,8 @@
       <c r="M26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="89" t="s">
-        <v>883</v>
+      <c r="N26" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>79</v>
@@ -4767,15 +4743,15 @@
       <c r="F27" s="69">
         <v>500</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="G27" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="80">
+      <c r="H27" s="81">
         <v>2</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>21</v>
@@ -4784,8 +4760,8 @@
         <v>4</v>
       </c>
       <c r="M27" s="15"/>
-      <c r="N27" s="89" t="s">
-        <v>883</v>
+      <c r="N27" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O27" s="11" t="s">
         <v>82</v>
@@ -4810,15 +4786,15 @@
       <c r="F28" s="69">
         <v>500</v>
       </c>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="85">
+      <c r="H28" s="81">
         <v>2</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>41</v>
@@ -4829,8 +4805,8 @@
       <c r="M28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="89" t="s">
-        <v>883</v>
+      <c r="N28" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O28" s="11" t="s">
         <v>85</v>
@@ -4855,15 +4831,15 @@
       <c r="F29" s="69">
         <v>300</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="85">
+      <c r="H29" s="81">
         <v>2</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>3</v>
@@ -4874,8 +4850,8 @@
       <c r="M29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="89" t="s">
-        <v>883</v>
+      <c r="N29" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O29" s="11" t="s">
         <v>87</v>
@@ -4900,15 +4876,15 @@
       <c r="F30" s="69">
         <v>300</v>
       </c>
-      <c r="G30" s="74" t="s">
+      <c r="G30" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="85">
+      <c r="H30" s="81">
         <v>8</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>89</v>
@@ -4919,8 +4895,8 @@
       <c r="M30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="89" t="s">
-        <v>883</v>
+      <c r="N30" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O30" s="11" t="s">
         <v>90</v>
@@ -4945,15 +4921,15 @@
       <c r="F31" s="69">
         <v>300</v>
       </c>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="84">
+      <c r="H31" s="80">
         <v>2</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>3</v>
@@ -4964,8 +4940,8 @@
       <c r="M31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N31" s="89" t="s">
-        <v>883</v>
+      <c r="N31" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>92</v>
@@ -4990,15 +4966,15 @@
       <c r="F32" s="69">
         <v>300</v>
       </c>
-      <c r="G32" s="73" t="s">
+      <c r="G32" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="84">
+      <c r="H32" s="80">
         <v>2</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>21</v>
@@ -5007,8 +4983,8 @@
         <v>4</v>
       </c>
       <c r="M32" s="9"/>
-      <c r="N32" s="89" t="s">
-        <v>883</v>
+      <c r="N32" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O32" s="11" t="s">
         <v>94</v>
@@ -5033,15 +5009,15 @@
       <c r="F33" s="69">
         <v>500</v>
       </c>
-      <c r="G33" s="75" t="s">
+      <c r="G33" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="85">
+      <c r="H33" s="81">
         <v>6</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>41</v>
@@ -5052,8 +5028,8 @@
       <c r="M33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="89" t="s">
-        <v>883</v>
+      <c r="N33" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O33" s="11" t="s">
         <v>96</v>
@@ -5078,15 +5054,15 @@
       <c r="F34" s="69">
         <v>500</v>
       </c>
-      <c r="G34" s="75" t="s">
+      <c r="G34" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="80">
+      <c r="H34" s="81">
         <v>6</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K34" s="20" t="s">
         <v>3</v>
@@ -5095,8 +5071,8 @@
         <v>4</v>
       </c>
       <c r="M34" s="15"/>
-      <c r="N34" s="89" t="s">
-        <v>883</v>
+      <c r="N34" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O34" s="11" t="s">
         <v>99</v>
@@ -5121,15 +5097,15 @@
       <c r="F35" s="69">
         <v>300</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="80">
         <v>2</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>21</v>
@@ -5140,8 +5116,8 @@
       <c r="M35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="89" t="s">
-        <v>883</v>
+      <c r="N35" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O35" s="11" t="s">
         <v>101</v>
@@ -5166,15 +5142,15 @@
       <c r="F36" s="69">
         <v>500</v>
       </c>
-      <c r="G36" s="74" t="s">
+      <c r="G36" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H36" s="85">
+      <c r="H36" s="81">
         <v>4</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>21</v>
@@ -5183,8 +5159,8 @@
         <v>4</v>
       </c>
       <c r="M36" s="13"/>
-      <c r="N36" s="89" t="s">
-        <v>883</v>
+      <c r="N36" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O36" s="11" t="s">
         <v>104</v>
@@ -5209,15 +5185,15 @@
       <c r="F37" s="69">
         <v>300</v>
       </c>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="84">
+      <c r="H37" s="80">
         <v>8</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>21</v>
@@ -5226,8 +5202,8 @@
         <v>4</v>
       </c>
       <c r="M37" s="9"/>
-      <c r="N37" s="89" t="s">
-        <v>883</v>
+      <c r="N37" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>107</v>
@@ -5252,15 +5228,15 @@
       <c r="F38" s="69">
         <v>300</v>
       </c>
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="84">
+      <c r="H38" s="80">
         <v>2</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>21</v>
@@ -5269,8 +5245,8 @@
         <v>4</v>
       </c>
       <c r="M38" s="9"/>
-      <c r="N38" s="89" t="s">
-        <v>883</v>
+      <c r="N38" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O38" s="11" t="s">
         <v>109</v>
@@ -5295,15 +5271,15 @@
       <c r="F39" s="69">
         <v>300</v>
       </c>
-      <c r="G39" s="74" t="s">
+      <c r="G39" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="85">
+      <c r="H39" s="81">
         <v>8</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K39" s="17" t="s">
         <v>3</v>
@@ -5314,8 +5290,8 @@
       <c r="M39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N39" s="89" t="s">
-        <v>883</v>
+      <c r="N39" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>111</v>
@@ -5340,15 +5316,15 @@
       <c r="F40" s="69">
         <v>300</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="85">
+      <c r="H40" s="81">
         <v>4</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>113</v>
@@ -5359,8 +5335,8 @@
       <c r="M40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N40" s="89" t="s">
-        <v>883</v>
+      <c r="N40" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O40" s="11" t="s">
         <v>114</v>
@@ -5385,15 +5361,15 @@
       <c r="F41" s="68">
         <v>1000</v>
       </c>
-      <c r="G41" s="75" t="s">
+      <c r="G41" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="80">
+      <c r="H41" s="81">
         <v>8</v>
       </c>
       <c r="I41" s="16"/>
       <c r="J41" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K41" s="20" t="s">
         <v>21</v>
@@ -5402,8 +5378,8 @@
         <v>4</v>
       </c>
       <c r="M41" s="15"/>
-      <c r="N41" s="89" t="s">
-        <v>883</v>
+      <c r="N41" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>117</v>
@@ -5428,15 +5404,15 @@
       <c r="F42" s="69">
         <v>300</v>
       </c>
-      <c r="G42" s="76" t="s">
+      <c r="G42" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="H42" s="84">
+      <c r="H42" s="80">
         <v>2</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K42" s="18" t="s">
         <v>120</v>
@@ -5447,8 +5423,8 @@
       <c r="M42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N42" s="89" t="s">
-        <v>883</v>
+      <c r="N42" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>121</v>
@@ -5473,15 +5449,15 @@
       <c r="F43" s="69">
         <v>300</v>
       </c>
-      <c r="G43" s="75" t="s">
+      <c r="G43" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="85">
+      <c r="H43" s="81">
         <v>4</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>123</v>
@@ -5492,8 +5468,8 @@
       <c r="M43" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="89" t="s">
-        <v>883</v>
+      <c r="N43" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>124</v>
@@ -5518,15 +5494,15 @@
       <c r="F44" s="69">
         <v>300</v>
       </c>
-      <c r="G44" s="74" t="s">
+      <c r="G44" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="85">
+      <c r="H44" s="81">
         <v>4</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K44" s="13" t="s">
         <v>21</v>
@@ -5535,8 +5511,8 @@
         <v>4</v>
       </c>
       <c r="M44" s="13"/>
-      <c r="N44" s="89" t="s">
-        <v>883</v>
+      <c r="N44" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>126</v>
@@ -5550,7 +5526,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D45" s="63" t="s">
         <v>127</v>
@@ -5561,15 +5537,15 @@
       <c r="F45" s="68">
         <v>1000</v>
       </c>
-      <c r="G45" s="75" t="s">
+      <c r="G45" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="85">
+      <c r="H45" s="81">
         <v>2</v>
       </c>
       <c r="I45" s="16"/>
       <c r="J45" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K45" s="15" t="s">
         <v>41</v>
@@ -5580,8 +5556,8 @@
       <c r="M45" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N45" s="89" t="s">
-        <v>883</v>
+      <c r="N45" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>128</v>
@@ -5595,7 +5571,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D46" s="63" t="s">
         <v>129</v>
@@ -5606,15 +5582,15 @@
       <c r="F46" s="69">
         <v>300</v>
       </c>
-      <c r="G46" s="75" t="s">
+      <c r="G46" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="85">
+      <c r="H46" s="81">
         <v>6</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>66</v>
@@ -5625,8 +5601,8 @@
       <c r="M46" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N46" s="89" t="s">
-        <v>883</v>
+      <c r="N46" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>130</v>
@@ -5640,7 +5616,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D47" s="63" t="s">
         <v>131</v>
@@ -5651,15 +5627,15 @@
       <c r="F47" s="69">
         <v>300</v>
       </c>
-      <c r="G47" s="76" t="s">
+      <c r="G47" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="H47" s="84">
+      <c r="H47" s="80">
         <v>6</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K47" s="18" t="s">
         <v>41</v>
@@ -5670,8 +5646,8 @@
       <c r="M47" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="89" t="s">
-        <v>883</v>
+      <c r="N47" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>132</v>
@@ -5685,7 +5661,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D48" s="63" t="s">
         <v>133</v>
@@ -5696,15 +5672,15 @@
       <c r="F48" s="69">
         <v>500</v>
       </c>
-      <c r="G48" s="75" t="s">
+      <c r="G48" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="85">
+      <c r="H48" s="81">
         <v>2</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K48" s="15" t="s">
         <v>41</v>
@@ -5715,8 +5691,8 @@
       <c r="M48" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="89" t="s">
-        <v>883</v>
+      <c r="N48" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>134</v>
@@ -5730,7 +5706,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D49" s="63" t="s">
         <v>135</v>
@@ -5741,15 +5717,15 @@
       <c r="F49" s="69">
         <v>300</v>
       </c>
-      <c r="G49" s="74" t="s">
+      <c r="G49" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="85">
+      <c r="H49" s="81">
         <v>4</v>
       </c>
       <c r="I49" s="14"/>
       <c r="J49" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>21</v>
@@ -5758,8 +5734,8 @@
         <v>4</v>
       </c>
       <c r="M49" s="18"/>
-      <c r="N49" s="89" t="s">
-        <v>883</v>
+      <c r="N49" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O49" s="11" t="s">
         <v>136</v>
@@ -5773,7 +5749,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D50" s="63" t="s">
         <v>137</v>
@@ -5784,15 +5760,15 @@
       <c r="F50" s="69">
         <v>300</v>
       </c>
-      <c r="G50" s="73" t="s">
+      <c r="G50" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="84">
+      <c r="H50" s="80">
         <v>4</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>21</v>
@@ -5803,8 +5779,8 @@
       <c r="M50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N50" s="89" t="s">
-        <v>883</v>
+      <c r="N50" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>138</v>
@@ -5818,7 +5794,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D51" s="63" t="s">
         <v>139</v>
@@ -5829,15 +5805,15 @@
       <c r="F51" s="69">
         <v>300</v>
       </c>
-      <c r="G51" s="74" t="s">
+      <c r="G51" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="85">
+      <c r="H51" s="81">
         <v>6</v>
       </c>
       <c r="I51" s="14"/>
       <c r="J51" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>3</v>
@@ -5848,8 +5824,8 @@
       <c r="M51" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N51" s="89" t="s">
-        <v>883</v>
+      <c r="N51" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>140</v>
@@ -5863,7 +5839,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D52" s="63" t="s">
         <v>141</v>
@@ -5874,15 +5850,15 @@
       <c r="F52" s="69">
         <v>500</v>
       </c>
-      <c r="G52" s="74" t="s">
+      <c r="G52" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="85">
+      <c r="H52" s="81">
         <v>4</v>
       </c>
       <c r="I52" s="14"/>
       <c r="J52" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K52" s="13" t="s">
         <v>21</v>
@@ -5893,8 +5869,8 @@
       <c r="M52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N52" s="89" t="s">
-        <v>883</v>
+      <c r="N52" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O52" s="11" t="s">
         <v>142</v>
@@ -5919,15 +5895,15 @@
       <c r="F53" s="69">
         <v>300</v>
       </c>
-      <c r="G53" s="73" t="s">
+      <c r="G53" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="84">
+      <c r="H53" s="80">
         <v>4</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K53" s="9" t="s">
         <v>21</v>
@@ -5936,8 +5912,8 @@
         <v>4</v>
       </c>
       <c r="M53" s="9"/>
-      <c r="N53" s="89" t="s">
-        <v>883</v>
+      <c r="N53" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O53" s="11" t="s">
         <v>144</v>
@@ -5951,7 +5927,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D54" s="63" t="s">
         <v>145</v>
@@ -5962,15 +5938,15 @@
       <c r="F54" s="69">
         <v>300</v>
       </c>
-      <c r="G54" s="75" t="s">
+      <c r="G54" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="85">
+      <c r="H54" s="81">
         <v>2</v>
       </c>
       <c r="I54" s="16"/>
       <c r="J54" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>146</v>
@@ -5981,8 +5957,8 @@
       <c r="M54" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="89" t="s">
-        <v>883</v>
+      <c r="N54" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>147</v>
@@ -5996,7 +5972,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D55" s="63" t="s">
         <v>148</v>
@@ -6007,15 +5983,15 @@
       <c r="F55" s="69">
         <v>300</v>
       </c>
-      <c r="G55" s="73" t="s">
+      <c r="G55" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H55" s="84">
+      <c r="H55" s="80">
         <v>6</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>56</v>
@@ -6026,8 +6002,8 @@
       <c r="M55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N55" s="89" t="s">
-        <v>883</v>
+      <c r="N55" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>149</v>
@@ -6041,7 +6017,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D56" s="63" t="s">
         <v>150</v>
@@ -6052,15 +6028,15 @@
       <c r="F56" s="69">
         <v>300</v>
       </c>
-      <c r="G56" s="73" t="s">
+      <c r="G56" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="84">
+      <c r="H56" s="80">
         <v>4</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>56</v>
@@ -6071,8 +6047,8 @@
       <c r="M56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N56" s="89" t="s">
-        <v>883</v>
+      <c r="N56" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O56" s="11" t="s">
         <v>151</v>
@@ -6086,7 +6062,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D57" s="63" t="s">
         <v>152</v>
@@ -6097,15 +6073,15 @@
       <c r="F57" s="69">
         <v>300</v>
       </c>
-      <c r="G57" s="75" t="s">
+      <c r="G57" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="85">
+      <c r="H57" s="81">
         <v>4</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>41</v>
@@ -6116,8 +6092,8 @@
       <c r="M57" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N57" s="89" t="s">
-        <v>883</v>
+      <c r="N57" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O57" s="11" t="s">
         <v>153</v>
@@ -6142,15 +6118,15 @@
       <c r="F58" s="68">
         <v>1000</v>
       </c>
-      <c r="G58" s="76" t="s">
+      <c r="G58" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="84">
+      <c r="H58" s="80">
         <v>6</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K58" s="18" t="s">
         <v>155</v>
@@ -6161,8 +6137,8 @@
       <c r="M58" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N58" s="89" t="s">
-        <v>883</v>
+      <c r="N58" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O58" s="11" t="s">
         <v>156</v>
@@ -6187,15 +6163,15 @@
       <c r="F59" s="69">
         <v>300</v>
       </c>
-      <c r="G59" s="74" t="s">
+      <c r="G59" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H59" s="85">
+      <c r="H59" s="81">
         <v>6</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>3</v>
@@ -6206,8 +6182,8 @@
       <c r="M59" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N59" s="89" t="s">
-        <v>883</v>
+      <c r="N59" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O59" s="11" t="s">
         <v>158</v>
@@ -6221,7 +6197,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D60" s="63" t="s">
         <v>159</v>
@@ -6232,15 +6208,15 @@
       <c r="F60" s="69">
         <v>500</v>
       </c>
-      <c r="G60" s="73" t="s">
+      <c r="G60" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="84">
+      <c r="H60" s="80">
         <v>4</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>56</v>
@@ -6251,8 +6227,8 @@
       <c r="M60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="89" t="s">
-        <v>883</v>
+      <c r="N60" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>160</v>
@@ -6266,7 +6242,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D61" s="63" t="s">
         <v>161</v>
@@ -6277,15 +6253,15 @@
       <c r="F61" s="68">
         <v>1000</v>
       </c>
-      <c r="G61" s="74" t="s">
+      <c r="G61" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="85">
+      <c r="H61" s="81">
         <v>6</v>
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>162</v>
@@ -6296,8 +6272,8 @@
       <c r="M61" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N61" s="89" t="s">
-        <v>883</v>
+      <c r="N61" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O61" s="11" t="s">
         <v>163</v>
@@ -6311,7 +6287,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D62" s="63" t="s">
         <v>164</v>
@@ -6322,15 +6298,15 @@
       <c r="F62" s="68">
         <v>1000</v>
       </c>
-      <c r="G62" s="74" t="s">
+      <c r="G62" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H62" s="85">
+      <c r="H62" s="81">
         <v>4</v>
       </c>
       <c r="I62" s="14"/>
       <c r="J62" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K62" s="13" t="s">
         <v>165</v>
@@ -6341,8 +6317,8 @@
       <c r="M62" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N62" s="89" t="s">
-        <v>883</v>
+      <c r="N62" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O62" s="11" t="s">
         <v>166</v>
@@ -6356,7 +6332,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D63" s="63" t="s">
         <v>167</v>
@@ -6367,15 +6343,15 @@
       <c r="F63" s="69">
         <v>300</v>
       </c>
-      <c r="G63" s="73" t="s">
+      <c r="G63" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="H63" s="84">
+      <c r="H63" s="80">
         <v>2</v>
       </c>
       <c r="I63" s="10"/>
       <c r="J63" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K63" s="9" t="s">
         <v>89</v>
@@ -6386,8 +6362,8 @@
       <c r="M63" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N63" s="89" t="s">
-        <v>883</v>
+      <c r="N63" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O63" s="11" t="s">
         <v>168</v>
@@ -6412,15 +6388,15 @@
       <c r="F64" s="69">
         <v>500</v>
       </c>
-      <c r="G64" s="73" t="s">
+      <c r="G64" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="H64" s="84">
+      <c r="H64" s="80">
         <v>8</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K64" s="21" t="s">
         <v>21</v>
@@ -6429,8 +6405,8 @@
         <v>4</v>
       </c>
       <c r="M64" s="9"/>
-      <c r="N64" s="89" t="s">
-        <v>883</v>
+      <c r="N64" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O64" s="11" t="s">
         <v>171</v>
@@ -6455,15 +6431,15 @@
       <c r="F65" s="69">
         <v>500</v>
       </c>
-      <c r="G65" s="73" t="s">
+      <c r="G65" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H65" s="84">
+      <c r="H65" s="80">
         <v>4</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K65" s="9" t="s">
         <v>173</v>
@@ -6474,8 +6450,8 @@
       <c r="M65" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N65" s="89" t="s">
-        <v>883</v>
+      <c r="N65" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>174</v>
@@ -6489,7 +6465,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D66" s="63" t="s">
         <v>175</v>
@@ -6500,15 +6476,15 @@
       <c r="F66" s="69">
         <v>500</v>
       </c>
-      <c r="G66" s="74" t="s">
+      <c r="G66" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="85">
+      <c r="H66" s="81">
         <v>2</v>
       </c>
       <c r="I66" s="14"/>
       <c r="J66" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K66" s="13" t="s">
         <v>21</v>
@@ -6519,8 +6495,8 @@
       <c r="M66" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N66" s="89" t="s">
-        <v>883</v>
+      <c r="N66" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>176</v>
@@ -6534,7 +6510,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D67" s="63" t="s">
         <v>177</v>
@@ -6545,15 +6521,15 @@
       <c r="F67" s="69">
         <v>500</v>
       </c>
-      <c r="G67" s="73" t="s">
+      <c r="G67" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H67" s="84">
+      <c r="H67" s="80">
         <v>6</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>21</v>
@@ -6564,8 +6540,8 @@
       <c r="M67" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="89" t="s">
-        <v>883</v>
+      <c r="N67" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O67" s="11" t="s">
         <v>178</v>
@@ -6579,7 +6555,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D68" s="63" t="s">
         <v>179</v>
@@ -6590,15 +6566,15 @@
       <c r="F68" s="69">
         <v>300</v>
       </c>
-      <c r="G68" s="75" t="s">
+      <c r="G68" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="85">
+      <c r="H68" s="81">
         <v>4</v>
       </c>
       <c r="I68" s="16"/>
       <c r="J68" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>180</v>
@@ -6609,8 +6585,8 @@
       <c r="M68" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N68" s="89" t="s">
-        <v>883</v>
+      <c r="N68" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O68" s="11" t="s">
         <v>181</v>
@@ -6624,7 +6600,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D69" s="63" t="s">
         <v>182</v>
@@ -6635,15 +6611,15 @@
       <c r="F69" s="69">
         <v>500</v>
       </c>
-      <c r="G69" s="75" t="s">
+      <c r="G69" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H69" s="85">
+      <c r="H69" s="81">
         <v>6</v>
       </c>
       <c r="I69" s="16"/>
       <c r="J69" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>41</v>
@@ -6654,8 +6630,8 @@
       <c r="M69" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N69" s="89" t="s">
-        <v>883</v>
+      <c r="N69" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O69" s="11" t="s">
         <v>183</v>
@@ -6669,7 +6645,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D70" s="63" t="s">
         <v>184</v>
@@ -6680,15 +6656,15 @@
       <c r="F70" s="69">
         <v>300</v>
       </c>
-      <c r="G70" s="74" t="s">
+      <c r="G70" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H70" s="85">
+      <c r="H70" s="81">
         <v>4</v>
       </c>
       <c r="I70" s="14"/>
       <c r="J70" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K70" s="13" t="s">
         <v>185</v>
@@ -6699,8 +6675,8 @@
       <c r="M70" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N70" s="89" t="s">
-        <v>883</v>
+      <c r="N70" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O70" s="11" t="s">
         <v>186</v>
@@ -6725,15 +6701,15 @@
       <c r="F71" s="69">
         <v>300</v>
       </c>
-      <c r="G71" s="73" t="s">
+      <c r="G71" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="84">
+      <c r="H71" s="80">
         <v>6</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K71" s="9" t="s">
         <v>3</v>
@@ -6744,8 +6720,8 @@
       <c r="M71" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N71" s="89" t="s">
-        <v>883</v>
+      <c r="N71" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O71" s="11" t="s">
         <v>188</v>
@@ -6770,15 +6746,15 @@
       <c r="F72" s="69">
         <v>500</v>
       </c>
-      <c r="G72" s="74" t="s">
+      <c r="G72" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="85">
+      <c r="H72" s="81">
         <v>4</v>
       </c>
       <c r="I72" s="14"/>
       <c r="J72" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>3</v>
@@ -6789,8 +6765,8 @@
       <c r="M72" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N72" s="89" t="s">
-        <v>883</v>
+      <c r="N72" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O72" s="11" t="s">
         <v>190</v>
@@ -6815,15 +6791,15 @@
       <c r="F73" s="69">
         <v>300</v>
       </c>
-      <c r="G73" s="75" t="s">
+      <c r="G73" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="H73" s="85">
+      <c r="H73" s="81">
         <v>6</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K73" s="15" t="s">
         <v>41</v>
@@ -6834,8 +6810,8 @@
       <c r="M73" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N73" s="89" t="s">
-        <v>883</v>
+      <c r="N73" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O73" s="11" t="s">
         <v>192</v>
@@ -6849,7 +6825,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D74" s="63" t="s">
         <v>193</v>
@@ -6860,15 +6836,15 @@
       <c r="F74" s="69">
         <v>300</v>
       </c>
-      <c r="G74" s="75" t="s">
+      <c r="G74" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="H74" s="85">
+      <c r="H74" s="81">
         <v>2</v>
       </c>
       <c r="I74" s="16"/>
       <c r="J74" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K74" s="15" t="s">
         <v>123</v>
@@ -6879,8 +6855,8 @@
       <c r="M74" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N74" s="89" t="s">
-        <v>883</v>
+      <c r="N74" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O74" s="11" t="s">
         <v>195</v>
@@ -6894,7 +6870,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D75" s="63" t="s">
         <v>196</v>
@@ -6905,15 +6881,15 @@
       <c r="F75" s="69">
         <v>500</v>
       </c>
-      <c r="G75" s="76" t="s">
+      <c r="G75" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="H75" s="84">
+      <c r="H75" s="80">
         <v>4</v>
       </c>
       <c r="I75" s="19"/>
       <c r="J75" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K75" s="18" t="s">
         <v>123</v>
@@ -6924,8 +6900,8 @@
       <c r="M75" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N75" s="89" t="s">
-        <v>883</v>
+      <c r="N75" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O75" s="11" t="s">
         <v>197</v>
@@ -6939,7 +6915,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>198</v>
@@ -6950,15 +6926,15 @@
       <c r="F76" s="69">
         <v>500</v>
       </c>
-      <c r="G76" s="73" t="s">
+      <c r="G76" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="84">
+      <c r="H76" s="80">
         <v>4</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K76" s="9" t="s">
         <v>173</v>
@@ -6969,8 +6945,8 @@
       <c r="M76" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N76" s="89" t="s">
-        <v>883</v>
+      <c r="N76" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>199</v>
@@ -6984,7 +6960,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D77" s="63" t="s">
         <v>200</v>
@@ -6995,15 +6971,15 @@
       <c r="F77" s="69">
         <v>300</v>
       </c>
-      <c r="G77" s="73" t="s">
+      <c r="G77" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H77" s="84">
+      <c r="H77" s="80">
         <v>2</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K77" s="9" t="s">
         <v>3</v>
@@ -7014,8 +6990,8 @@
       <c r="M77" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N77" s="89" t="s">
-        <v>883</v>
+      <c r="N77" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O77" s="11" t="s">
         <v>201</v>
@@ -7029,7 +7005,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D78" s="63" t="s">
         <v>202</v>
@@ -7040,15 +7016,15 @@
       <c r="F78" s="68">
         <v>1000</v>
       </c>
-      <c r="G78" s="73" t="s">
+      <c r="G78" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H78" s="84">
+      <c r="H78" s="80">
         <v>6</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>3</v>
@@ -7059,8 +7035,8 @@
       <c r="M78" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N78" s="89" t="s">
-        <v>883</v>
+      <c r="N78" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O78" s="11" t="s">
         <v>203</v>
@@ -7074,7 +7050,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D79" s="63" t="s">
         <v>204</v>
@@ -7085,15 +7061,15 @@
       <c r="F79" s="69">
         <v>500</v>
       </c>
-      <c r="G79" s="73" t="s">
+      <c r="G79" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H79" s="84">
+      <c r="H79" s="80">
         <v>6</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K79" s="9" t="s">
         <v>173</v>
@@ -7102,8 +7078,8 @@
         <v>4</v>
       </c>
       <c r="M79" s="9"/>
-      <c r="N79" s="89" t="s">
-        <v>883</v>
+      <c r="N79" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O79" s="11" t="s">
         <v>205</v>
@@ -7117,7 +7093,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D80" s="63" t="s">
         <v>206</v>
@@ -7128,15 +7104,15 @@
       <c r="F80" s="69">
         <v>300</v>
       </c>
-      <c r="G80" s="73" t="s">
+      <c r="G80" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="H80" s="84">
+      <c r="H80" s="80">
         <v>2</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K80" s="9" t="s">
         <v>21</v>
@@ -7147,8 +7123,8 @@
       <c r="M80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N80" s="89" t="s">
-        <v>883</v>
+      <c r="N80" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O80" s="11" t="s">
         <v>207</v>
@@ -7162,7 +7138,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D81" s="63" t="s">
         <v>208</v>
@@ -7173,15 +7149,15 @@
       <c r="F81" s="69">
         <v>500</v>
       </c>
-      <c r="G81" s="73" t="s">
+      <c r="G81" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="84">
+      <c r="H81" s="80">
         <v>2</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K81" s="9" t="s">
         <v>3</v>
@@ -7192,8 +7168,8 @@
       <c r="M81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N81" s="89" t="s">
-        <v>883</v>
+      <c r="N81" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O81" s="11" t="s">
         <v>209</v>
@@ -7218,15 +7194,15 @@
       <c r="F82" s="69">
         <v>300</v>
       </c>
-      <c r="G82" s="74" t="s">
+      <c r="G82" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="85">
+      <c r="H82" s="81">
         <v>4</v>
       </c>
       <c r="I82" s="14"/>
       <c r="J82" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K82" s="13" t="s">
         <v>3</v>
@@ -7237,8 +7213,8 @@
       <c r="M82" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N82" s="89" t="s">
-        <v>883</v>
+      <c r="N82" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O82" s="11" t="s">
         <v>211</v>
@@ -7252,7 +7228,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="45" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D83" s="63" t="s">
         <v>212</v>
@@ -7263,15 +7239,15 @@
       <c r="F83" s="69">
         <v>300</v>
       </c>
-      <c r="G83" s="74" t="s">
+      <c r="G83" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="85">
+      <c r="H83" s="81">
         <v>2</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K83" s="13" t="s">
         <v>3</v>
@@ -7282,8 +7258,8 @@
       <c r="M83" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N83" s="89" t="s">
-        <v>883</v>
+      <c r="N83" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O83" s="11" t="s">
         <v>213</v>
@@ -7297,7 +7273,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D84" s="63" t="s">
         <v>214</v>
@@ -7308,15 +7284,15 @@
       <c r="F84" s="69">
         <v>500</v>
       </c>
-      <c r="G84" s="76" t="s">
+      <c r="G84" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H84" s="84">
+      <c r="H84" s="80">
         <v>4</v>
       </c>
       <c r="I84" s="19"/>
       <c r="J84" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K84" s="18" t="s">
         <v>120</v>
@@ -7327,8 +7303,8 @@
       <c r="M84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N84" s="89" t="s">
-        <v>883</v>
+      <c r="N84" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O84" s="11" t="s">
         <v>215</v>
@@ -7342,7 +7318,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D85" s="63" t="s">
         <v>216</v>
@@ -7353,15 +7329,15 @@
       <c r="F85" s="69">
         <v>500</v>
       </c>
-      <c r="G85" s="73" t="s">
+      <c r="G85" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="84">
+      <c r="H85" s="80">
         <v>6</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K85" s="9" t="s">
         <v>3</v>
@@ -7372,8 +7348,8 @@
       <c r="M85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N85" s="89" t="s">
-        <v>883</v>
+      <c r="N85" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O85" s="11" t="s">
         <v>217</v>
@@ -7398,15 +7374,15 @@
       <c r="F86" s="69">
         <v>300</v>
       </c>
-      <c r="G86" s="73" t="s">
+      <c r="G86" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H86" s="84">
+      <c r="H86" s="80">
         <v>4</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K86" s="9" t="s">
         <v>56</v>
@@ -7417,8 +7393,8 @@
       <c r="M86" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N86" s="89" t="s">
-        <v>883</v>
+      <c r="N86" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O86" s="11" t="s">
         <v>219</v>
@@ -7443,15 +7419,15 @@
       <c r="F87" s="68">
         <v>1000</v>
       </c>
-      <c r="G87" s="77" t="s">
+      <c r="G87" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="H87" s="85">
+      <c r="H87" s="81">
         <v>6</v>
       </c>
       <c r="I87" s="14"/>
       <c r="J87" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K87" s="17" t="s">
         <v>222</v>
@@ -7462,8 +7438,8 @@
       <c r="M87" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N87" s="89" t="s">
-        <v>883</v>
+      <c r="N87" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O87" s="11" t="s">
         <v>223</v>
@@ -7477,7 +7453,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D88" s="63" t="s">
         <v>224</v>
@@ -7488,15 +7464,15 @@
       <c r="F88" s="69">
         <v>500</v>
       </c>
-      <c r="G88" s="74" t="s">
+      <c r="G88" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="H88" s="85">
+      <c r="H88" s="81">
         <v>4</v>
       </c>
       <c r="I88" s="14"/>
       <c r="J88" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>21</v>
@@ -7505,8 +7481,8 @@
         <v>4</v>
       </c>
       <c r="M88" s="15"/>
-      <c r="N88" s="89" t="s">
-        <v>883</v>
+      <c r="N88" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O88" s="11" t="s">
         <v>225</v>
@@ -7520,7 +7496,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D89" s="63" t="s">
         <v>226</v>
@@ -7531,15 +7507,15 @@
       <c r="F89" s="69">
         <v>500</v>
       </c>
-      <c r="G89" s="76" t="s">
+      <c r="G89" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="H89" s="79">
+      <c r="H89" s="80">
         <v>6</v>
       </c>
       <c r="I89" s="19"/>
       <c r="J89" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K89" s="22" t="s">
         <v>3</v>
@@ -7550,8 +7526,8 @@
       <c r="M89" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="89" t="s">
-        <v>883</v>
+      <c r="N89" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O89" s="11" t="s">
         <v>228</v>
@@ -7565,7 +7541,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D90" s="63" t="s">
         <v>229</v>
@@ -7576,15 +7552,15 @@
       <c r="F90" s="69">
         <v>300</v>
       </c>
-      <c r="G90" s="73" t="s">
+      <c r="G90" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="84">
+      <c r="H90" s="80">
         <v>4</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>21</v>
@@ -7593,8 +7569,8 @@
         <v>4</v>
       </c>
       <c r="M90" s="15"/>
-      <c r="N90" s="89" t="s">
-        <v>883</v>
+      <c r="N90" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O90" s="11" t="s">
         <v>230</v>
@@ -7608,7 +7584,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D91" s="63" t="s">
         <v>231</v>
@@ -7619,15 +7595,15 @@
       <c r="F91" s="68">
         <v>1000</v>
       </c>
-      <c r="G91" s="74" t="s">
+      <c r="G91" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="H91" s="85">
+      <c r="H91" s="81">
         <v>4</v>
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K91" s="13" t="s">
         <v>3</v>
@@ -7638,8 +7614,8 @@
       <c r="M91" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N91" s="89" t="s">
-        <v>883</v>
+      <c r="N91" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O91" s="11" t="s">
         <v>232</v>
@@ -7653,7 +7629,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D92" s="63" t="s">
         <v>233</v>
@@ -7664,15 +7640,15 @@
       <c r="F92" s="69">
         <v>500</v>
       </c>
-      <c r="G92" s="73" t="s">
+      <c r="G92" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H92" s="84">
+      <c r="H92" s="80">
         <v>2</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>234</v>
@@ -7683,8 +7659,8 @@
       <c r="M92" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N92" s="89" t="s">
-        <v>883</v>
+      <c r="N92" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O92" s="11" t="s">
         <v>235</v>
@@ -7698,7 +7674,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D93" s="63" t="s">
         <v>236</v>
@@ -7709,15 +7685,15 @@
       <c r="F93" s="69">
         <v>300</v>
       </c>
-      <c r="G93" s="74" t="s">
+      <c r="G93" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="H93" s="85">
+      <c r="H93" s="81">
         <v>2</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K93" s="13" t="s">
         <v>3</v>
@@ -7728,8 +7704,8 @@
       <c r="M93" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N93" s="89" t="s">
-        <v>883</v>
+      <c r="N93" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O93" s="11" t="s">
         <v>238</v>
@@ -7743,7 +7719,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D94" s="63" t="s">
         <v>239</v>
@@ -7754,15 +7730,15 @@
       <c r="F94" s="68">
         <v>1000</v>
       </c>
-      <c r="G94" s="74" t="s">
+      <c r="G94" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="85">
+      <c r="H94" s="81">
         <v>6</v>
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K94" s="13" t="s">
         <v>21</v>
@@ -7773,8 +7749,8 @@
       <c r="M94" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N94" s="89" t="s">
-        <v>883</v>
+      <c r="N94" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O94" s="11" t="s">
         <v>240</v>
@@ -7788,7 +7764,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D95" s="63" t="s">
         <v>241</v>
@@ -7799,15 +7775,15 @@
       <c r="F95" s="69">
         <v>500</v>
       </c>
-      <c r="G95" s="73" t="s">
+      <c r="G95" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H95" s="84">
+      <c r="H95" s="80">
         <v>4</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K95" s="9" t="s">
         <v>21</v>
@@ -7818,8 +7794,8 @@
       <c r="M95" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N95" s="89" t="s">
-        <v>883</v>
+      <c r="N95" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O95" s="11" t="s">
         <v>242</v>
@@ -7844,15 +7820,15 @@
       <c r="F96" s="69">
         <v>500</v>
       </c>
-      <c r="G96" s="74" t="s">
+      <c r="G96" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H96" s="85">
+      <c r="H96" s="81">
         <v>4</v>
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K96" s="13" t="s">
         <v>3</v>
@@ -7863,8 +7839,8 @@
       <c r="M96" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="89" t="s">
-        <v>883</v>
+      <c r="N96" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O96" s="11" t="s">
         <v>244</v>
@@ -7878,7 +7854,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D97" s="63" t="s">
         <v>245</v>
@@ -7889,15 +7865,15 @@
       <c r="F97" s="69">
         <v>300</v>
       </c>
-      <c r="G97" s="73" t="s">
+      <c r="G97" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="H97" s="84">
+      <c r="H97" s="80">
         <v>2</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K97" s="9" t="s">
         <v>3</v>
@@ -7908,8 +7884,8 @@
       <c r="M97" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N97" s="89" t="s">
-        <v>883</v>
+      <c r="N97" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O97" s="11" t="s">
         <v>246</v>
@@ -7934,15 +7910,15 @@
       <c r="F98" s="69">
         <v>300</v>
       </c>
-      <c r="G98" s="74" t="s">
+      <c r="G98" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="H98" s="85">
+      <c r="H98" s="81">
         <v>4</v>
       </c>
       <c r="I98" s="14"/>
       <c r="J98" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K98" s="13" t="s">
         <v>21</v>
@@ -7951,8 +7927,8 @@
         <v>4</v>
       </c>
       <c r="M98" s="13"/>
-      <c r="N98" s="89" t="s">
-        <v>883</v>
+      <c r="N98" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O98" s="11" t="s">
         <v>248</v>
@@ -7977,15 +7953,15 @@
       <c r="F99" s="69">
         <v>300</v>
       </c>
-      <c r="G99" s="75" t="s">
+      <c r="G99" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="H99" s="80">
+      <c r="H99" s="81">
         <v>4</v>
       </c>
       <c r="I99" s="16"/>
       <c r="J99" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K99" s="20" t="s">
         <v>21</v>
@@ -7994,8 +7970,8 @@
         <v>4</v>
       </c>
       <c r="M99" s="15"/>
-      <c r="N99" s="89" t="s">
-        <v>883</v>
+      <c r="N99" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O99" s="11" t="s">
         <v>251</v>
@@ -8009,7 +7985,7 @@
         <v>98</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D100" s="63" t="s">
         <v>252</v>
@@ -8020,15 +7996,15 @@
       <c r="F100" s="69">
         <v>500</v>
       </c>
-      <c r="G100" s="74" t="s">
+      <c r="G100" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="H100" s="85">
+      <c r="H100" s="81">
         <v>4</v>
       </c>
       <c r="I100" s="14"/>
       <c r="J100" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K100" s="13" t="s">
         <v>21</v>
@@ -8039,8 +8015,8 @@
       <c r="M100" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N100" s="89" t="s">
-        <v>883</v>
+      <c r="N100" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O100" s="11" t="s">
         <v>254</v>
@@ -8054,7 +8030,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="45" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D101" s="63" t="s">
         <v>255</v>
@@ -8065,15 +8041,15 @@
       <c r="F101" s="69">
         <v>500</v>
       </c>
-      <c r="G101" s="74" t="s">
+      <c r="G101" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="85">
+      <c r="H101" s="81">
         <v>2</v>
       </c>
       <c r="I101" s="14"/>
       <c r="J101" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K101" s="13" t="s">
         <v>3</v>
@@ -8084,8 +8060,8 @@
       <c r="M101" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N101" s="89" t="s">
-        <v>883</v>
+      <c r="N101" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O101" s="11" t="s">
         <v>256</v>
@@ -8110,15 +8086,15 @@
       <c r="F102" s="69">
         <v>500</v>
       </c>
-      <c r="G102" s="74" t="s">
+      <c r="G102" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="85">
+      <c r="H102" s="81">
         <v>4</v>
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K102" s="13" t="s">
         <v>21</v>
@@ -8129,8 +8105,8 @@
       <c r="M102" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N102" s="89" t="s">
-        <v>883</v>
+      <c r="N102" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O102" s="11" t="s">
         <v>258</v>
@@ -8155,15 +8131,15 @@
       <c r="F103" s="68">
         <v>1000</v>
       </c>
-      <c r="G103" s="74" t="s">
+      <c r="G103" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="H103" s="85">
+      <c r="H103" s="81">
         <v>6</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K103" s="13" t="s">
         <v>3</v>
@@ -8174,8 +8150,8 @@
       <c r="M103" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N103" s="89" t="s">
-        <v>883</v>
+      <c r="N103" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O103" s="11" t="s">
         <v>260</v>
@@ -8189,7 +8165,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="45" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D104" s="63" t="s">
         <v>261</v>
@@ -8200,15 +8176,15 @@
       <c r="F104" s="69">
         <v>500</v>
       </c>
-      <c r="G104" s="74" t="s">
+      <c r="G104" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H104" s="85">
+      <c r="H104" s="81">
         <v>2</v>
       </c>
       <c r="I104" s="14"/>
       <c r="J104" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K104" s="13" t="s">
         <v>21</v>
@@ -8217,8 +8193,8 @@
         <v>17</v>
       </c>
       <c r="M104" s="18"/>
-      <c r="N104" s="89" t="s">
-        <v>883</v>
+      <c r="N104" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O104" s="11" t="s">
         <v>262</v>
@@ -8243,15 +8219,15 @@
       <c r="F105" s="69">
         <v>300</v>
       </c>
-      <c r="G105" s="74" t="s">
+      <c r="G105" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H105" s="85">
+      <c r="H105" s="81">
         <v>8</v>
       </c>
       <c r="I105" s="14"/>
       <c r="J105" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K105" s="13" t="s">
         <v>3</v>
@@ -8262,8 +8238,8 @@
       <c r="M105" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N105" s="89" t="s">
-        <v>883</v>
+      <c r="N105" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O105" s="11" t="s">
         <v>264</v>
@@ -8277,7 +8253,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="45" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D106" s="63" t="s">
         <v>265</v>
@@ -8288,15 +8264,15 @@
       <c r="F106" s="69">
         <v>300</v>
       </c>
-      <c r="G106" s="73" t="s">
+      <c r="G106" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="84">
+      <c r="H106" s="80">
         <v>2</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K106" s="9" t="s">
         <v>56</v>
@@ -8307,8 +8283,8 @@
       <c r="M106" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N106" s="89" t="s">
-        <v>883</v>
+      <c r="N106" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O106" s="11" t="s">
         <v>266</v>
@@ -8322,7 +8298,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="45" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D107" s="63" t="s">
         <v>267</v>
@@ -8333,15 +8309,15 @@
       <c r="F107" s="69">
         <v>300</v>
       </c>
-      <c r="G107" s="73" t="s">
+      <c r="G107" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H107" s="84">
+      <c r="H107" s="80">
         <v>2</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K107" s="9" t="s">
         <v>268</v>
@@ -8352,8 +8328,8 @@
       <c r="M107" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N107" s="89" t="s">
-        <v>883</v>
+      <c r="N107" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O107" s="11" t="s">
         <v>269</v>
@@ -8367,7 +8343,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="45" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D108" s="63" t="s">
         <v>270</v>
@@ -8378,15 +8354,15 @@
       <c r="F108" s="69">
         <v>500</v>
       </c>
-      <c r="G108" s="74" t="s">
+      <c r="G108" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="85">
+      <c r="H108" s="81">
         <v>4</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K108" s="13" t="s">
         <v>21</v>
@@ -8395,8 +8371,8 @@
         <v>4</v>
       </c>
       <c r="M108" s="13"/>
-      <c r="N108" s="89" t="s">
-        <v>883</v>
+      <c r="N108" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O108" s="11" t="s">
         <v>271</v>
@@ -8410,7 +8386,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D109" s="63" t="s">
         <v>272</v>
@@ -8421,15 +8397,15 @@
       <c r="F109" s="69">
         <v>500</v>
       </c>
-      <c r="G109" s="74" t="s">
+      <c r="G109" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H109" s="85">
+      <c r="H109" s="81">
         <v>2</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K109" s="13" t="s">
         <v>21</v>
@@ -8438,8 +8414,8 @@
         <v>4</v>
       </c>
       <c r="M109" s="13"/>
-      <c r="N109" s="89" t="s">
-        <v>883</v>
+      <c r="N109" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O109" s="11" t="s">
         <v>273</v>
@@ -8453,7 +8429,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D110" s="63" t="s">
         <v>274</v>
@@ -8464,15 +8440,15 @@
       <c r="F110" s="69">
         <v>300</v>
       </c>
-      <c r="G110" s="76" t="s">
+      <c r="G110" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="H110" s="84">
+      <c r="H110" s="80">
         <v>4</v>
       </c>
       <c r="I110" s="19"/>
       <c r="J110" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K110" s="18" t="s">
         <v>41</v>
@@ -8483,8 +8459,8 @@
       <c r="M110" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N110" s="89" t="s">
-        <v>883</v>
+      <c r="N110" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O110" s="11" t="s">
         <v>275</v>
@@ -8498,7 +8474,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="45" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D111" s="63" t="s">
         <v>276</v>
@@ -8509,15 +8485,15 @@
       <c r="F111" s="69">
         <v>300</v>
       </c>
-      <c r="G111" s="73" t="s">
+      <c r="G111" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H111" s="84">
+      <c r="H111" s="80">
         <v>2</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>3</v>
@@ -8528,8 +8504,8 @@
       <c r="M111" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N111" s="89" t="s">
-        <v>883</v>
+      <c r="N111" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O111" s="11" t="s">
         <v>277</v>
@@ -8554,15 +8530,15 @@
       <c r="F112" s="69">
         <v>500</v>
       </c>
-      <c r="G112" s="73" t="s">
+      <c r="G112" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H112" s="84">
+      <c r="H112" s="80">
         <v>2</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K112" s="9" t="s">
         <v>279</v>
@@ -8573,8 +8549,8 @@
       <c r="M112" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N112" s="89" t="s">
-        <v>883</v>
+      <c r="N112" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O112" s="11" t="s">
         <v>280</v>
@@ -8588,7 +8564,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="45" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D113" s="63" t="s">
         <v>281</v>
@@ -8599,15 +8575,15 @@
       <c r="F113" s="69">
         <v>500</v>
       </c>
-      <c r="G113" s="73" t="s">
+      <c r="G113" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H113" s="84">
+      <c r="H113" s="80">
         <v>4</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K113" s="9" t="s">
         <v>279</v>
@@ -8618,8 +8594,8 @@
       <c r="M113" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N113" s="89" t="s">
-        <v>883</v>
+      <c r="N113" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O113" s="11" t="s">
         <v>282</v>
@@ -8633,7 +8609,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="45" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D114" s="63" t="s">
         <v>283</v>
@@ -8644,15 +8620,15 @@
       <c r="F114" s="68">
         <v>1000</v>
       </c>
-      <c r="G114" s="73" t="s">
+      <c r="G114" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="84">
+      <c r="H114" s="80">
         <v>6</v>
       </c>
       <c r="I114" s="10"/>
       <c r="J114" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K114" s="9" t="s">
         <v>3</v>
@@ -8663,8 +8639,8 @@
       <c r="M114" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N114" s="89" t="s">
-        <v>883</v>
+      <c r="N114" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O114" s="11" t="s">
         <v>284</v>
@@ -8678,7 +8654,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="45" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D115" s="63" t="s">
         <v>285</v>
@@ -8689,15 +8665,15 @@
       <c r="F115" s="69">
         <v>500</v>
       </c>
-      <c r="G115" s="73" t="s">
+      <c r="G115" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H115" s="84">
+      <c r="H115" s="80">
         <v>2</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K115" s="9" t="s">
         <v>286</v>
@@ -8708,8 +8684,8 @@
       <c r="M115" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N115" s="89" t="s">
-        <v>883</v>
+      <c r="N115" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O115" s="11" t="s">
         <v>287</v>
@@ -8723,7 +8699,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="45" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D116" s="63" t="s">
         <v>288</v>
@@ -8734,15 +8710,15 @@
       <c r="F116" s="69">
         <v>500</v>
       </c>
-      <c r="G116" s="73" t="s">
+      <c r="G116" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H116" s="84">
+      <c r="H116" s="80">
         <v>6</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K116" s="9" t="s">
         <v>286</v>
@@ -8751,8 +8727,8 @@
         <v>4</v>
       </c>
       <c r="M116" s="9"/>
-      <c r="N116" s="89" t="s">
-        <v>883</v>
+      <c r="N116" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O116" s="11" t="s">
         <v>289</v>
@@ -8766,7 +8742,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="45" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D117" s="63" t="s">
         <v>290</v>
@@ -8777,15 +8753,15 @@
       <c r="F117" s="68">
         <v>1000</v>
       </c>
-      <c r="G117" s="75" t="s">
+      <c r="G117" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="H117" s="80">
+      <c r="H117" s="81">
         <v>4</v>
       </c>
       <c r="I117" s="16"/>
       <c r="J117" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K117" s="13" t="s">
         <v>21</v>
@@ -8794,8 +8770,8 @@
         <v>4</v>
       </c>
       <c r="M117" s="15"/>
-      <c r="N117" s="89" t="s">
-        <v>883</v>
+      <c r="N117" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O117" s="11" t="s">
         <v>291</v>
@@ -8820,15 +8796,15 @@
       <c r="F118" s="69">
         <v>300</v>
       </c>
-      <c r="G118" s="75" t="s">
+      <c r="G118" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="H118" s="85">
+      <c r="H118" s="81">
         <v>4</v>
       </c>
       <c r="I118" s="16"/>
       <c r="J118" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K118" s="15" t="s">
         <v>293</v>
@@ -8839,8 +8815,8 @@
       <c r="M118" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N118" s="89" t="s">
-        <v>883</v>
+      <c r="N118" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O118" s="11" t="s">
         <v>294</v>
@@ -8854,7 +8830,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="45" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D119" s="63" t="s">
         <v>295</v>
@@ -8865,15 +8841,15 @@
       <c r="F119" s="69">
         <v>500</v>
       </c>
-      <c r="G119" s="74" t="s">
+      <c r="G119" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H119" s="85">
+      <c r="H119" s="81">
         <v>6</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K119" s="13" t="s">
         <v>3</v>
@@ -8884,8 +8860,8 @@
       <c r="M119" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N119" s="89" t="s">
-        <v>883</v>
+      <c r="N119" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O119" s="11" t="s">
         <v>296</v>
@@ -8899,7 +8875,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D120" s="63" t="s">
         <v>297</v>
@@ -8910,15 +8886,15 @@
       <c r="F120" s="69">
         <v>500</v>
       </c>
-      <c r="G120" s="73" t="s">
+      <c r="G120" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H120" s="84">
+      <c r="H120" s="80">
         <v>4</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K120" s="9" t="s">
         <v>3</v>
@@ -8929,8 +8905,8 @@
       <c r="M120" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N120" s="89" t="s">
-        <v>883</v>
+      <c r="N120" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O120" s="11" t="s">
         <v>298</v>
@@ -8944,7 +8920,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D121" s="63" t="s">
         <v>299</v>
@@ -8955,15 +8931,15 @@
       <c r="F121" s="68">
         <v>1000</v>
       </c>
-      <c r="G121" s="76" t="s">
+      <c r="G121" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H121" s="84">
+      <c r="H121" s="80">
         <v>6</v>
       </c>
       <c r="I121" s="19"/>
       <c r="J121" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K121" s="18" t="s">
         <v>146</v>
@@ -8974,8 +8950,8 @@
       <c r="M121" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N121" s="89" t="s">
-        <v>883</v>
+      <c r="N121" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O121" s="11" t="s">
         <v>300</v>
@@ -8989,7 +8965,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="45" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D122" s="63" t="s">
         <v>301</v>
@@ -9000,15 +8976,15 @@
       <c r="F122" s="69">
         <v>500</v>
       </c>
-      <c r="G122" s="74" t="s">
+      <c r="G122" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H122" s="85">
+      <c r="H122" s="81">
         <v>4</v>
       </c>
       <c r="I122" s="14"/>
       <c r="J122" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K122" s="13" t="s">
         <v>3</v>
@@ -9019,8 +8995,8 @@
       <c r="M122" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N122" s="89" t="s">
-        <v>883</v>
+      <c r="N122" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O122" s="11" t="s">
         <v>302</v>
@@ -9034,7 +9010,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D123" s="63" t="s">
         <v>303</v>
@@ -9045,15 +9021,15 @@
       <c r="F123" s="69">
         <v>300</v>
       </c>
-      <c r="G123" s="73" t="s">
+      <c r="G123" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H123" s="84">
+      <c r="H123" s="80">
         <v>4</v>
       </c>
       <c r="I123" s="10"/>
       <c r="J123" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K123" s="9" t="s">
         <v>21</v>
@@ -9062,8 +9038,8 @@
         <v>17</v>
       </c>
       <c r="M123" s="9"/>
-      <c r="N123" s="89" t="s">
-        <v>883</v>
+      <c r="N123" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O123" s="11" t="s">
         <v>304</v>
@@ -9077,7 +9053,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="45" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D124" s="63" t="s">
         <v>305</v>
@@ -9088,15 +9064,15 @@
       <c r="F124" s="68">
         <v>1000</v>
       </c>
-      <c r="G124" s="73" t="s">
+      <c r="G124" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H124" s="86">
+      <c r="H124" s="82">
         <v>10</v>
       </c>
       <c r="I124" s="23"/>
       <c r="J124" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K124" s="9" t="s">
         <v>76</v>
@@ -9107,8 +9083,8 @@
       <c r="M124" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N124" s="89" t="s">
-        <v>883</v>
+      <c r="N124" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O124" s="11" t="s">
         <v>306</v>
@@ -9122,7 +9098,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="45" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D125" s="63" t="s">
         <v>307</v>
@@ -9133,15 +9109,15 @@
       <c r="F125" s="69">
         <v>300</v>
       </c>
-      <c r="G125" s="75" t="s">
+      <c r="G125" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="H125" s="87">
+      <c r="H125" s="83">
         <v>8</v>
       </c>
       <c r="I125" s="24"/>
       <c r="J125" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K125" s="15" t="s">
         <v>308</v>
@@ -9152,8 +9128,8 @@
       <c r="M125" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N125" s="89" t="s">
-        <v>883</v>
+      <c r="N125" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O125" s="11" t="s">
         <v>309</v>
@@ -9167,7 +9143,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D126" s="63" t="s">
         <v>310</v>
@@ -9178,15 +9154,15 @@
       <c r="F126" s="69">
         <v>500</v>
       </c>
-      <c r="G126" s="74" t="s">
+      <c r="G126" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H126" s="87">
+      <c r="H126" s="83">
         <v>4</v>
       </c>
       <c r="I126" s="25"/>
       <c r="J126" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K126" s="13" t="s">
         <v>286</v>
@@ -9197,8 +9173,8 @@
       <c r="M126" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N126" s="89" t="s">
-        <v>883</v>
+      <c r="N126" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O126" s="11" t="s">
         <v>311</v>
@@ -9212,7 +9188,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D127" s="63" t="s">
         <v>312</v>
@@ -9223,15 +9199,15 @@
       <c r="F127" s="69">
         <v>300</v>
       </c>
-      <c r="G127" s="74" t="s">
+      <c r="G127" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H127" s="87">
+      <c r="H127" s="83">
         <v>4</v>
       </c>
       <c r="I127" s="25"/>
       <c r="J127" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K127" s="13" t="s">
         <v>3</v>
@@ -9242,8 +9218,8 @@
       <c r="M127" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N127" s="89" t="s">
-        <v>883</v>
+      <c r="N127" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O127" s="11" t="s">
         <v>313</v>
@@ -9257,7 +9233,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="45" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D128" s="63" t="s">
         <v>314</v>
@@ -9268,15 +9244,15 @@
       <c r="F128" s="68">
         <v>1000</v>
       </c>
-      <c r="G128" s="74" t="s">
+      <c r="G128" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H128" s="87">
+      <c r="H128" s="83">
         <v>2</v>
       </c>
       <c r="I128" s="25"/>
       <c r="J128" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K128" s="13" t="s">
         <v>3</v>
@@ -9287,8 +9263,8 @@
       <c r="M128" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N128" s="89" t="s">
-        <v>883</v>
+      <c r="N128" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O128" s="11" t="s">
         <v>315</v>
@@ -9302,7 +9278,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="45" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D129" s="63" t="s">
         <v>316</v>
@@ -9313,15 +9289,15 @@
       <c r="F129" s="69">
         <v>300</v>
       </c>
-      <c r="G129" s="74" t="s">
+      <c r="G129" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H129" s="87">
+      <c r="H129" s="83">
         <v>6</v>
       </c>
       <c r="I129" s="25"/>
       <c r="J129" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K129" s="13" t="s">
         <v>268</v>
@@ -9330,8 +9306,8 @@
         <v>4</v>
       </c>
       <c r="M129" s="15"/>
-      <c r="N129" s="89" t="s">
-        <v>883</v>
+      <c r="N129" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O129" s="11" t="s">
         <v>317</v>
@@ -9356,15 +9332,15 @@
       <c r="F130" s="69">
         <v>300</v>
       </c>
-      <c r="G130" s="73" t="s">
+      <c r="G130" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="H130" s="86">
+      <c r="H130" s="82">
         <v>6</v>
       </c>
       <c r="I130" s="23"/>
       <c r="J130" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>319</v>
@@ -9375,8 +9351,8 @@
       <c r="M130" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="N130" s="89" t="s">
-        <v>883</v>
+      <c r="N130" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O130" s="11" t="s">
         <v>321</v>
@@ -9401,15 +9377,15 @@
       <c r="F131" s="69">
         <v>300</v>
       </c>
-      <c r="G131" s="74" t="s">
+      <c r="G131" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="H131" s="87">
+      <c r="H131" s="83">
         <v>2</v>
       </c>
       <c r="I131" s="25"/>
       <c r="J131" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K131" s="13" t="s">
         <v>3</v>
@@ -9420,8 +9396,8 @@
       <c r="M131" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N131" s="89" t="s">
-        <v>883</v>
+      <c r="N131" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O131" s="11" t="s">
         <v>323</v>
@@ -9435,7 +9411,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="45" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D132" s="63" t="s">
         <v>324</v>
@@ -9446,15 +9422,15 @@
       <c r="F132" s="69">
         <v>500</v>
       </c>
-      <c r="G132" s="74" t="s">
+      <c r="G132" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H132" s="87">
+      <c r="H132" s="83">
         <v>4</v>
       </c>
       <c r="I132" s="25"/>
       <c r="J132" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K132" s="13" t="s">
         <v>173</v>
@@ -9465,8 +9441,8 @@
       <c r="M132" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N132" s="89" t="s">
-        <v>883</v>
+      <c r="N132" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O132" s="11" t="s">
         <v>325</v>
@@ -9480,7 +9456,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="45" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D133" s="63" t="s">
         <v>326</v>
@@ -9491,15 +9467,15 @@
       <c r="F133" s="69">
         <v>500</v>
       </c>
-      <c r="G133" s="74" t="s">
+      <c r="G133" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H133" s="87">
+      <c r="H133" s="83">
         <v>4</v>
       </c>
       <c r="I133" s="25"/>
       <c r="J133" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K133" s="13" t="s">
         <v>3</v>
@@ -9510,8 +9486,8 @@
       <c r="M133" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N133" s="89" t="s">
-        <v>883</v>
+      <c r="N133" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O133" s="11" t="s">
         <v>327</v>
@@ -9525,7 +9501,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="45" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D134" s="63" t="s">
         <v>328</v>
@@ -9536,15 +9512,15 @@
       <c r="F134" s="69">
         <v>500</v>
       </c>
-      <c r="G134" s="74" t="s">
+      <c r="G134" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="H134" s="87">
+      <c r="H134" s="83">
         <v>6</v>
       </c>
       <c r="I134" s="25"/>
       <c r="J134" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K134" s="17" t="s">
         <v>3</v>
@@ -9555,8 +9531,8 @@
       <c r="M134" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N134" s="89" t="s">
-        <v>883</v>
+      <c r="N134" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O134" s="11" t="s">
         <v>330</v>
@@ -9570,7 +9546,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="45" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D135" s="63" t="s">
         <v>331</v>
@@ -9581,15 +9557,15 @@
       <c r="F135" s="69">
         <v>300</v>
       </c>
-      <c r="G135" s="74" t="s">
+      <c r="G135" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H135" s="87">
+      <c r="H135" s="83">
         <v>4</v>
       </c>
       <c r="I135" s="25"/>
       <c r="J135" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K135" s="13" t="s">
         <v>173</v>
@@ -9598,8 +9574,8 @@
         <v>17</v>
       </c>
       <c r="M135" s="13"/>
-      <c r="N135" s="89" t="s">
-        <v>883</v>
+      <c r="N135" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O135" s="11" t="s">
         <v>332</v>
@@ -9613,7 +9589,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="45" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D136" s="63" t="s">
         <v>333</v>
@@ -9624,15 +9600,15 @@
       <c r="F136" s="69">
         <v>300</v>
       </c>
-      <c r="G136" s="74" t="s">
+      <c r="G136" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H136" s="87">
+      <c r="H136" s="83">
         <v>4</v>
       </c>
       <c r="I136" s="25"/>
       <c r="J136" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K136" s="13" t="s">
         <v>286</v>
@@ -9641,8 +9617,8 @@
         <v>4</v>
       </c>
       <c r="M136" s="9"/>
-      <c r="N136" s="89" t="s">
-        <v>883</v>
+      <c r="N136" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O136" s="11" t="s">
         <v>334</v>
@@ -9656,7 +9632,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="45" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D137" s="63" t="s">
         <v>335</v>
@@ -9667,15 +9643,15 @@
       <c r="F137" s="69">
         <v>500</v>
       </c>
-      <c r="G137" s="76" t="s">
+      <c r="G137" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H137" s="86">
+      <c r="H137" s="82">
         <v>2</v>
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K137" s="18" t="s">
         <v>336</v>
@@ -9686,8 +9662,8 @@
       <c r="M137" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N137" s="89" t="s">
-        <v>883</v>
+      <c r="N137" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O137" s="11" t="s">
         <v>337</v>
@@ -9701,7 +9677,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="45" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D138" s="63" t="s">
         <v>338</v>
@@ -9712,15 +9688,15 @@
       <c r="F138" s="68">
         <v>1000</v>
       </c>
-      <c r="G138" s="74" t="s">
+      <c r="G138" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H138" s="87">
+      <c r="H138" s="83">
         <v>4</v>
       </c>
       <c r="I138" s="25"/>
       <c r="J138" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K138" s="13" t="s">
         <v>3</v>
@@ -9731,8 +9707,8 @@
       <c r="M138" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N138" s="89" t="s">
-        <v>883</v>
+      <c r="N138" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O138" s="11" t="s">
         <v>339</v>
@@ -9746,7 +9722,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="45" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D139" s="63" t="s">
         <v>340</v>
@@ -9757,15 +9733,15 @@
       <c r="F139" s="69">
         <v>500</v>
       </c>
-      <c r="G139" s="76" t="s">
+      <c r="G139" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H139" s="86">
+      <c r="H139" s="82">
         <v>4</v>
       </c>
       <c r="I139" s="26"/>
       <c r="J139" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K139" s="18" t="s">
         <v>41</v>
@@ -9776,8 +9752,8 @@
       <c r="M139" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N139" s="89" t="s">
-        <v>883</v>
+      <c r="N139" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O139" s="11" t="s">
         <v>341</v>
@@ -9791,7 +9767,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D140" s="63" t="s">
         <v>342</v>
@@ -9802,15 +9778,15 @@
       <c r="F140" s="68">
         <v>1000</v>
       </c>
-      <c r="G140" s="74" t="s">
+      <c r="G140" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="87">
+      <c r="H140" s="83">
         <v>6</v>
       </c>
       <c r="I140" s="25"/>
       <c r="J140" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K140" s="13" t="s">
         <v>286</v>
@@ -9821,8 +9797,8 @@
       <c r="M140" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N140" s="89" t="s">
-        <v>883</v>
+      <c r="N140" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O140" s="11" t="s">
         <v>343</v>
@@ -9836,7 +9812,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D141" s="63" t="s">
         <v>344</v>
@@ -9847,15 +9823,15 @@
       <c r="F141" s="68">
         <v>1000</v>
       </c>
-      <c r="G141" s="73" t="s">
+      <c r="G141" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H141" s="86">
+      <c r="H141" s="82">
         <v>6</v>
       </c>
       <c r="I141" s="23"/>
       <c r="J141" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K141" s="9" t="s">
         <v>3</v>
@@ -9866,8 +9842,8 @@
       <c r="M141" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N141" s="89" t="s">
-        <v>883</v>
+      <c r="N141" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O141" s="11" t="s">
         <v>345</v>
@@ -9881,7 +9857,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D142" s="63" t="s">
         <v>346</v>
@@ -9892,15 +9868,15 @@
       <c r="F142" s="68">
         <v>1000</v>
       </c>
-      <c r="G142" s="74" t="s">
+      <c r="G142" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H142" s="87">
+      <c r="H142" s="83">
         <v>8</v>
       </c>
       <c r="I142" s="25"/>
       <c r="J142" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K142" s="13" t="s">
         <v>3</v>
@@ -9911,8 +9887,8 @@
       <c r="M142" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N142" s="89" t="s">
-        <v>883</v>
+      <c r="N142" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O142" s="11" t="s">
         <v>347</v>
@@ -9937,15 +9913,15 @@
       <c r="F143" s="69">
         <v>300</v>
       </c>
-      <c r="G143" s="73" t="s">
+      <c r="G143" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H143" s="86">
+      <c r="H143" s="82">
         <v>2</v>
       </c>
       <c r="I143" s="23"/>
       <c r="J143" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K143" s="9" t="s">
         <v>21</v>
@@ -9956,8 +9932,8 @@
       <c r="M143" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N143" s="89" t="s">
-        <v>883</v>
+      <c r="N143" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O143" s="11" t="s">
         <v>349</v>
@@ -9971,7 +9947,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="45" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D144" s="63" t="s">
         <v>350</v>
@@ -9982,15 +9958,15 @@
       <c r="F144" s="69">
         <v>500</v>
       </c>
-      <c r="G144" s="75" t="s">
+      <c r="G144" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="H144" s="87">
+      <c r="H144" s="83">
         <v>6</v>
       </c>
       <c r="I144" s="24"/>
       <c r="J144" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K144" s="15" t="s">
         <v>41</v>
@@ -10001,8 +9977,8 @@
       <c r="M144" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N144" s="89" t="s">
-        <v>883</v>
+      <c r="N144" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O144" s="11" t="s">
         <v>351</v>
@@ -10016,7 +9992,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="45" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D145" s="63" t="s">
         <v>352</v>
@@ -10027,15 +10003,15 @@
       <c r="F145" s="69">
         <v>500</v>
       </c>
-      <c r="G145" s="74" t="s">
+      <c r="G145" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H145" s="87">
+      <c r="H145" s="83">
         <v>4</v>
       </c>
       <c r="I145" s="25"/>
       <c r="J145" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K145" s="13" t="s">
         <v>173</v>
@@ -10046,8 +10022,8 @@
       <c r="M145" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N145" s="89" t="s">
-        <v>883</v>
+      <c r="N145" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O145" s="11" t="s">
         <v>353</v>
@@ -10072,15 +10048,15 @@
       <c r="F146" s="68">
         <v>1000</v>
       </c>
-      <c r="G146" s="74" t="s">
+      <c r="G146" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H146" s="87">
+      <c r="H146" s="83">
         <v>4</v>
       </c>
       <c r="I146" s="25"/>
       <c r="J146" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K146" s="13" t="s">
         <v>3</v>
@@ -10091,8 +10067,8 @@
       <c r="M146" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N146" s="89" t="s">
-        <v>883</v>
+      <c r="N146" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O146" s="11" t="s">
         <v>355</v>
@@ -10106,7 +10082,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="45" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D147" s="63" t="s">
         <v>356</v>
@@ -10117,15 +10093,15 @@
       <c r="F147" s="69">
         <v>500</v>
       </c>
-      <c r="G147" s="73" t="s">
+      <c r="G147" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H147" s="86">
+      <c r="H147" s="82">
         <v>2</v>
       </c>
       <c r="I147" s="23"/>
       <c r="J147" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K147" s="9" t="s">
         <v>21</v>
@@ -10134,8 +10110,8 @@
         <v>4</v>
       </c>
       <c r="M147" s="9"/>
-      <c r="N147" s="89" t="s">
-        <v>883</v>
+      <c r="N147" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O147" s="11" t="s">
         <v>357</v>
@@ -10149,7 +10125,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="45" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D148" s="63" t="s">
         <v>358</v>
@@ -10160,15 +10136,15 @@
       <c r="F148" s="69">
         <v>300</v>
       </c>
-      <c r="G148" s="73" t="s">
+      <c r="G148" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H148" s="86">
+      <c r="H148" s="82">
         <v>2</v>
       </c>
       <c r="I148" s="23"/>
       <c r="J148" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K148" s="9" t="s">
         <v>3</v>
@@ -10179,8 +10155,8 @@
       <c r="M148" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N148" s="89" t="s">
-        <v>883</v>
+      <c r="N148" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O148" s="11" t="s">
         <v>359</v>
@@ -10194,7 +10170,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D149" s="63" t="s">
         <v>360</v>
@@ -10205,15 +10181,15 @@
       <c r="F149" s="68">
         <v>1000</v>
       </c>
-      <c r="G149" s="73" t="s">
+      <c r="G149" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H149" s="86">
+      <c r="H149" s="82">
         <v>4</v>
       </c>
       <c r="I149" s="23"/>
       <c r="J149" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>21</v>
@@ -10224,8 +10200,8 @@
       <c r="M149" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N149" s="89" t="s">
-        <v>883</v>
+      <c r="N149" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O149" s="11" t="s">
         <v>361</v>
@@ -10239,7 +10215,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D150" s="63" t="s">
         <v>362</v>
@@ -10250,15 +10226,15 @@
       <c r="F150" s="69">
         <v>300</v>
       </c>
-      <c r="G150" s="73" t="s">
+      <c r="G150" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="H150" s="86">
+      <c r="H150" s="82">
         <v>2</v>
       </c>
       <c r="I150" s="23"/>
       <c r="J150" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K150" s="9" t="s">
         <v>3</v>
@@ -10269,8 +10245,8 @@
       <c r="M150" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N150" s="89" t="s">
-        <v>883</v>
+      <c r="N150" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O150" s="11" t="s">
         <v>363</v>
@@ -10284,7 +10260,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D151" s="63" t="s">
         <v>364</v>
@@ -10295,15 +10271,15 @@
       <c r="F151" s="69">
         <v>300</v>
       </c>
-      <c r="G151" s="74" t="s">
+      <c r="G151" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="H151" s="87">
+      <c r="H151" s="83">
         <v>2</v>
       </c>
       <c r="I151" s="25"/>
       <c r="J151" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K151" s="13" t="s">
         <v>162</v>
@@ -10312,8 +10288,8 @@
         <v>4</v>
       </c>
       <c r="M151" s="13"/>
-      <c r="N151" s="89" t="s">
-        <v>883</v>
+      <c r="N151" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O151" s="11" t="s">
         <v>365</v>
@@ -10338,15 +10314,15 @@
       <c r="F152" s="69">
         <v>500</v>
       </c>
-      <c r="G152" s="73" t="s">
+      <c r="G152" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="H152" s="86">
+      <c r="H152" s="82">
         <v>4</v>
       </c>
       <c r="I152" s="23"/>
       <c r="J152" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K152" s="9" t="s">
         <v>21</v>
@@ -10357,8 +10333,8 @@
       <c r="M152" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N152" s="89" t="s">
-        <v>883</v>
+      <c r="N152" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O152" s="11" t="s">
         <v>368</v>
@@ -10372,7 +10348,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D153" s="63" t="s">
         <v>369</v>
@@ -10383,15 +10359,15 @@
       <c r="F153" s="69">
         <v>500</v>
       </c>
-      <c r="G153" s="74" t="s">
+      <c r="G153" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H153" s="87">
+      <c r="H153" s="83">
         <v>2</v>
       </c>
       <c r="I153" s="25"/>
       <c r="J153" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K153" s="13" t="s">
         <v>21</v>
@@ -10402,8 +10378,8 @@
       <c r="M153" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N153" s="89" t="s">
-        <v>883</v>
+      <c r="N153" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O153" s="11" t="s">
         <v>370</v>
@@ -10417,7 +10393,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D154" s="63" t="s">
         <v>371</v>
@@ -10428,15 +10404,15 @@
       <c r="F154" s="69">
         <v>300</v>
       </c>
-      <c r="G154" s="76" t="s">
+      <c r="G154" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H154" s="86">
+      <c r="H154" s="82">
         <v>4</v>
       </c>
       <c r="I154" s="26"/>
       <c r="J154" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K154" s="18" t="s">
         <v>66</v>
@@ -10447,8 +10423,8 @@
       <c r="M154" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N154" s="89" t="s">
-        <v>883</v>
+      <c r="N154" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O154" s="11" t="s">
         <v>372</v>
@@ -10473,15 +10449,15 @@
       <c r="F155" s="68">
         <v>1000</v>
       </c>
-      <c r="G155" s="75" t="s">
+      <c r="G155" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="H155" s="81">
+      <c r="H155" s="83">
         <v>8</v>
       </c>
       <c r="I155" s="24"/>
       <c r="J155" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K155" s="20" t="s">
         <v>21</v>
@@ -10490,8 +10466,8 @@
         <v>4</v>
       </c>
       <c r="M155" s="15"/>
-      <c r="N155" s="89" t="s">
-        <v>883</v>
+      <c r="N155" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O155" s="11" t="s">
         <v>374</v>
@@ -10505,7 +10481,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D156" s="63" t="s">
         <v>375</v>
@@ -10516,15 +10492,15 @@
       <c r="F156" s="69">
         <v>300</v>
       </c>
-      <c r="G156" s="74" t="s">
+      <c r="G156" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H156" s="87">
+      <c r="H156" s="83">
         <v>2</v>
       </c>
       <c r="I156" s="25"/>
       <c r="J156" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K156" s="13" t="s">
         <v>21</v>
@@ -10535,8 +10511,8 @@
       <c r="M156" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N156" s="89" t="s">
-        <v>883</v>
+      <c r="N156" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O156" s="11" t="s">
         <v>376</v>
@@ -10550,7 +10526,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D157" s="63" t="s">
         <v>377</v>
@@ -10561,15 +10537,15 @@
       <c r="F157" s="69">
         <v>500</v>
       </c>
-      <c r="G157" s="75" t="s">
+      <c r="G157" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="H157" s="87">
+      <c r="H157" s="83">
         <v>4</v>
       </c>
       <c r="I157" s="24"/>
       <c r="J157" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K157" s="15" t="s">
         <v>41</v>
@@ -10580,8 +10556,8 @@
       <c r="M157" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N157" s="89" t="s">
-        <v>883</v>
+      <c r="N157" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O157" s="11" t="s">
         <v>378</v>
@@ -10595,7 +10571,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D158" s="63" t="s">
         <v>379</v>
@@ -10606,15 +10582,15 @@
       <c r="F158" s="68">
         <v>1000</v>
       </c>
-      <c r="G158" s="76" t="s">
+      <c r="G158" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="H158" s="86">
+      <c r="H158" s="82">
         <v>2</v>
       </c>
       <c r="I158" s="26"/>
       <c r="J158" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K158" s="18" t="s">
         <v>41</v>
@@ -10625,8 +10601,8 @@
       <c r="M158" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N158" s="89" t="s">
-        <v>883</v>
+      <c r="N158" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O158" s="11" t="s">
         <v>380</v>
@@ -10640,7 +10616,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D159" s="63" t="s">
         <v>381</v>
@@ -10651,15 +10627,15 @@
       <c r="F159" s="69">
         <v>300</v>
       </c>
-      <c r="G159" s="74" t="s">
+      <c r="G159" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H159" s="87">
+      <c r="H159" s="83">
         <v>4</v>
       </c>
       <c r="I159" s="25"/>
       <c r="J159" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K159" s="13" t="s">
         <v>3</v>
@@ -10670,8 +10646,8 @@
       <c r="M159" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N159" s="89" t="s">
-        <v>883</v>
+      <c r="N159" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O159" s="11" t="s">
         <v>382</v>
@@ -10696,15 +10672,15 @@
       <c r="F160" s="69">
         <v>300</v>
       </c>
-      <c r="G160" s="73" t="s">
+      <c r="G160" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H160" s="86">
+      <c r="H160" s="82">
         <v>6</v>
       </c>
       <c r="I160" s="23"/>
       <c r="J160" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K160" s="9" t="s">
         <v>384</v>
@@ -10715,8 +10691,8 @@
       <c r="M160" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N160" s="89" t="s">
-        <v>883</v>
+      <c r="N160" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O160" s="11" t="s">
         <v>385</v>
@@ -10730,7 +10706,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D161" s="63" t="s">
         <v>386</v>
@@ -10741,15 +10717,15 @@
       <c r="F161" s="69">
         <v>500</v>
       </c>
-      <c r="G161" s="73" t="s">
+      <c r="G161" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="H161" s="86">
+      <c r="H161" s="82">
         <v>4</v>
       </c>
       <c r="I161" s="23"/>
       <c r="J161" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K161" s="9" t="s">
         <v>388</v>
@@ -10760,8 +10736,8 @@
       <c r="M161" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N161" s="89" t="s">
-        <v>883</v>
+      <c r="N161" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O161" s="11" t="s">
         <v>389</v>
@@ -10775,7 +10751,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D162" s="63" t="s">
         <v>390</v>
@@ -10786,15 +10762,15 @@
       <c r="F162" s="69">
         <v>300</v>
       </c>
-      <c r="G162" s="74" t="s">
+      <c r="G162" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H162" s="87">
+      <c r="H162" s="83">
         <v>2</v>
       </c>
       <c r="I162" s="25"/>
       <c r="J162" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K162" s="13" t="s">
         <v>21</v>
@@ -10803,8 +10779,8 @@
         <v>4</v>
       </c>
       <c r="M162" s="13"/>
-      <c r="N162" s="89" t="s">
-        <v>883</v>
+      <c r="N162" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O162" s="11" t="s">
         <v>391</v>
@@ -10818,7 +10794,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D163" s="63" t="s">
         <v>392</v>
@@ -10829,15 +10805,15 @@
       <c r="F163" s="69">
         <v>300</v>
       </c>
-      <c r="G163" s="73" t="s">
+      <c r="G163" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H163" s="86">
+      <c r="H163" s="82">
         <v>4</v>
       </c>
       <c r="I163" s="23"/>
       <c r="J163" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K163" s="9" t="s">
         <v>3</v>
@@ -10848,8 +10824,8 @@
       <c r="M163" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N163" s="89" t="s">
-        <v>883</v>
+      <c r="N163" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O163" s="11" t="s">
         <v>393</v>
@@ -10874,15 +10850,15 @@
       <c r="F164" s="69">
         <v>500</v>
       </c>
-      <c r="G164" s="74" t="s">
+      <c r="G164" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H164" s="87">
+      <c r="H164" s="83">
         <v>2</v>
       </c>
       <c r="I164" s="25"/>
       <c r="J164" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K164" s="13" t="s">
         <v>384</v>
@@ -10893,8 +10869,8 @@
       <c r="M164" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N164" s="89" t="s">
-        <v>883</v>
+      <c r="N164" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O164" s="11" t="s">
         <v>395</v>
@@ -10908,7 +10884,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D165" s="63" t="s">
         <v>396</v>
@@ -10919,15 +10895,15 @@
       <c r="F165" s="69">
         <v>500</v>
       </c>
-      <c r="G165" s="73" t="s">
+      <c r="G165" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H165" s="86">
+      <c r="H165" s="82">
         <v>6</v>
       </c>
       <c r="I165" s="23"/>
       <c r="J165" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K165" s="9" t="s">
         <v>173</v>
@@ -10938,8 +10914,8 @@
       <c r="M165" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N165" s="89" t="s">
-        <v>883</v>
+      <c r="N165" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O165" s="11" t="s">
         <v>397</v>
@@ -10953,7 +10929,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D166" s="63" t="s">
         <v>398</v>
@@ -10964,15 +10940,15 @@
       <c r="F166" s="69">
         <v>300</v>
       </c>
-      <c r="G166" s="74" t="s">
+      <c r="G166" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H166" s="87">
+      <c r="H166" s="83">
         <v>4</v>
       </c>
       <c r="I166" s="25"/>
       <c r="J166" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K166" s="13" t="s">
         <v>56</v>
@@ -10983,8 +10959,8 @@
       <c r="M166" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N166" s="89" t="s">
-        <v>883</v>
+      <c r="N166" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O166" s="11" t="s">
         <v>399</v>
@@ -10998,7 +10974,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="45" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D167" s="63" t="s">
         <v>400</v>
@@ -11009,15 +10985,15 @@
       <c r="F167" s="69">
         <v>500</v>
       </c>
-      <c r="G167" s="73" t="s">
+      <c r="G167" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="H167" s="86">
+      <c r="H167" s="82">
         <v>4</v>
       </c>
       <c r="I167" s="23"/>
       <c r="J167" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K167" s="21" t="s">
         <v>21</v>
@@ -11026,8 +11002,8 @@
         <v>4</v>
       </c>
       <c r="M167" s="9"/>
-      <c r="N167" s="89" t="s">
-        <v>883</v>
+      <c r="N167" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O167" s="11" t="s">
         <v>401</v>
@@ -11052,15 +11028,15 @@
       <c r="F168" s="68">
         <v>1000</v>
       </c>
-      <c r="G168" s="74" t="s">
+      <c r="G168" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H168" s="87">
+      <c r="H168" s="83">
         <v>6</v>
       </c>
       <c r="I168" s="25"/>
       <c r="J168" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K168" s="13" t="s">
         <v>403</v>
@@ -11071,8 +11047,8 @@
       <c r="M168" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N168" s="89" t="s">
-        <v>883</v>
+      <c r="N168" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O168" s="11" t="s">
         <v>404</v>
@@ -11086,7 +11062,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="45" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D169" s="63" t="s">
         <v>405</v>
@@ -11097,15 +11073,15 @@
       <c r="F169" s="69">
         <v>500</v>
       </c>
-      <c r="G169" s="75" t="s">
+      <c r="G169" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="H169" s="87">
+      <c r="H169" s="83">
         <v>2</v>
       </c>
       <c r="I169" s="24"/>
       <c r="J169" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K169" s="15" t="s">
         <v>66</v>
@@ -11116,8 +11092,8 @@
       <c r="M169" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N169" s="89" t="s">
-        <v>883</v>
+      <c r="N169" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O169" s="11" t="s">
         <v>406</v>
@@ -11131,7 +11107,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="45" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D170" s="63" t="s">
         <v>407</v>
@@ -11142,15 +11118,15 @@
       <c r="F170" s="68">
         <v>1000</v>
       </c>
-      <c r="G170" s="75" t="s">
+      <c r="G170" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H170" s="87">
+      <c r="H170" s="83">
         <v>2</v>
       </c>
       <c r="I170" s="24"/>
       <c r="J170" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K170" s="15" t="s">
         <v>41</v>
@@ -11161,8 +11137,8 @@
       <c r="M170" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N170" s="89" t="s">
-        <v>883</v>
+      <c r="N170" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O170" s="11" t="s">
         <v>408</v>
@@ -11176,7 +11152,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="45" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D171" s="63" t="s">
         <v>410</v>
@@ -11187,15 +11163,15 @@
       <c r="F171" s="69">
         <v>500</v>
       </c>
-      <c r="G171" s="73" t="s">
+      <c r="G171" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H171" s="86">
+      <c r="H171" s="82">
         <v>4</v>
       </c>
       <c r="I171" s="23"/>
       <c r="J171" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K171" s="9" t="s">
         <v>173</v>
@@ -11206,8 +11182,8 @@
       <c r="M171" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N171" s="89" t="s">
-        <v>883</v>
+      <c r="N171" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O171" s="11" t="s">
         <v>411</v>
@@ -11221,7 +11197,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="45" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D172" s="63" t="s">
         <v>412</v>
@@ -11232,15 +11208,15 @@
       <c r="F172" s="68">
         <v>1000</v>
       </c>
-      <c r="G172" s="76" t="s">
+      <c r="G172" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H172" s="86">
+      <c r="H172" s="82">
         <v>6</v>
       </c>
       <c r="I172" s="26"/>
       <c r="J172" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K172" s="18" t="s">
         <v>123</v>
@@ -11251,8 +11227,8 @@
       <c r="M172" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N172" s="89" t="s">
-        <v>883</v>
+      <c r="N172" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O172" s="11" t="s">
         <v>413</v>
@@ -11266,7 +11242,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="45" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D173" s="63" t="s">
         <v>414</v>
@@ -11277,15 +11253,15 @@
       <c r="F173" s="69">
         <v>300</v>
       </c>
-      <c r="G173" s="73" t="s">
+      <c r="G173" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H173" s="86">
+      <c r="H173" s="82">
         <v>6</v>
       </c>
       <c r="I173" s="23"/>
       <c r="J173" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K173" s="9" t="s">
         <v>185</v>
@@ -11296,8 +11272,8 @@
       <c r="M173" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N173" s="89" t="s">
-        <v>883</v>
+      <c r="N173" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O173" s="11" t="s">
         <v>415</v>
@@ -11311,7 +11287,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="45" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D174" s="63" t="s">
         <v>416</v>
@@ -11322,15 +11298,15 @@
       <c r="F174" s="69">
         <v>300</v>
       </c>
-      <c r="G174" s="74" t="s">
+      <c r="G174" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="H174" s="87">
+      <c r="H174" s="83">
         <v>2</v>
       </c>
       <c r="I174" s="25"/>
       <c r="J174" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K174" s="13" t="s">
         <v>21</v>
@@ -11341,8 +11317,8 @@
       <c r="M174" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N174" s="89" t="s">
-        <v>883</v>
+      <c r="N174" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O174" s="11" t="s">
         <v>417</v>
@@ -11367,15 +11343,15 @@
       <c r="F175" s="69">
         <v>500</v>
       </c>
-      <c r="G175" s="74" t="s">
+      <c r="G175" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="H175" s="87">
+      <c r="H175" s="83">
         <v>2</v>
       </c>
       <c r="I175" s="25"/>
       <c r="J175" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K175" s="17" t="s">
         <v>21</v>
@@ -11384,8 +11360,8 @@
         <v>4</v>
       </c>
       <c r="M175" s="13"/>
-      <c r="N175" s="89" t="s">
-        <v>883</v>
+      <c r="N175" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O175" s="11" t="s">
         <v>419</v>
@@ -11410,15 +11386,15 @@
       <c r="F176" s="69">
         <v>300</v>
       </c>
-      <c r="G176" s="74" t="s">
+      <c r="G176" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H176" s="87">
+      <c r="H176" s="83">
         <v>4</v>
       </c>
       <c r="I176" s="25"/>
       <c r="J176" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K176" s="17" t="s">
         <v>21</v>
@@ -11427,8 +11403,8 @@
         <v>4</v>
       </c>
       <c r="M176" s="13"/>
-      <c r="N176" s="89" t="s">
-        <v>883</v>
+      <c r="N176" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O176" s="11" t="s">
         <v>421</v>
@@ -11453,15 +11429,15 @@
       <c r="F177" s="69">
         <v>300</v>
       </c>
-      <c r="G177" s="73" t="s">
+      <c r="G177" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H177" s="86">
+      <c r="H177" s="82">
         <v>2</v>
       </c>
       <c r="I177" s="23"/>
       <c r="J177" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K177" s="9" t="s">
         <v>3</v>
@@ -11472,8 +11448,8 @@
       <c r="M177" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N177" s="89" t="s">
-        <v>883</v>
+      <c r="N177" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O177" s="11" t="s">
         <v>423</v>
@@ -11487,7 +11463,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="45" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D178" s="63" t="s">
         <v>424</v>
@@ -11498,15 +11474,15 @@
       <c r="F178" s="69">
         <v>500</v>
       </c>
-      <c r="G178" s="75" t="s">
+      <c r="G178" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H178" s="87">
+      <c r="H178" s="83">
         <v>4</v>
       </c>
       <c r="I178" s="24"/>
       <c r="J178" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K178" s="15" t="s">
         <v>425</v>
@@ -11517,8 +11493,8 @@
       <c r="M178" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N178" s="89" t="s">
-        <v>883</v>
+      <c r="N178" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O178" s="11" t="s">
         <v>426</v>
@@ -11532,7 +11508,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="45" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D179" s="63" t="s">
         <v>427</v>
@@ -11543,15 +11519,15 @@
       <c r="F179" s="69">
         <v>500</v>
       </c>
-      <c r="G179" s="76" t="s">
+      <c r="G179" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H179" s="86">
+      <c r="H179" s="82">
         <v>4</v>
       </c>
       <c r="I179" s="26"/>
       <c r="J179" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K179" s="18" t="s">
         <v>41</v>
@@ -11562,8 +11538,8 @@
       <c r="M179" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N179" s="89" t="s">
-        <v>883</v>
+      <c r="N179" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O179" s="11" t="s">
         <v>428</v>
@@ -11577,7 +11553,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="45" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D180" s="63" t="s">
         <v>429</v>
@@ -11588,15 +11564,15 @@
       <c r="F180" s="69">
         <v>300</v>
       </c>
-      <c r="G180" s="74" t="s">
+      <c r="G180" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H180" s="87">
+      <c r="H180" s="83">
         <v>2</v>
       </c>
       <c r="I180" s="25"/>
       <c r="J180" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K180" s="13" t="s">
         <v>53</v>
@@ -11607,8 +11583,8 @@
       <c r="M180" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N180" s="89" t="s">
-        <v>883</v>
+      <c r="N180" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O180" s="11" t="s">
         <v>430</v>
@@ -11633,15 +11609,15 @@
       <c r="F181" s="69">
         <v>300</v>
       </c>
-      <c r="G181" s="73" t="s">
+      <c r="G181" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H181" s="86">
+      <c r="H181" s="82">
         <v>6</v>
       </c>
       <c r="I181" s="23"/>
       <c r="J181" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K181" s="9" t="s">
         <v>432</v>
@@ -11650,8 +11626,8 @@
         <v>4</v>
       </c>
       <c r="M181" s="15"/>
-      <c r="N181" s="89" t="s">
-        <v>883</v>
+      <c r="N181" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O181" s="11" t="s">
         <v>433</v>
@@ -11665,7 +11641,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="45" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D182" s="63" t="s">
         <v>434</v>
@@ -11676,15 +11652,15 @@
       <c r="F182" s="69">
         <v>300</v>
       </c>
-      <c r="G182" s="73" t="s">
+      <c r="G182" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H182" s="86">
+      <c r="H182" s="82">
         <v>2</v>
       </c>
       <c r="I182" s="23"/>
       <c r="J182" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K182" s="9" t="s">
         <v>21</v>
@@ -11695,8 +11671,8 @@
       <c r="M182" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N182" s="89" t="s">
-        <v>883</v>
+      <c r="N182" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O182" s="11" t="s">
         <v>435</v>
@@ -11710,7 +11686,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="45" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D183" s="63" t="s">
         <v>436</v>
@@ -11721,15 +11697,15 @@
       <c r="F183" s="69">
         <v>500</v>
       </c>
-      <c r="G183" s="74" t="s">
+      <c r="G183" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H183" s="87">
+      <c r="H183" s="83">
         <v>6</v>
       </c>
       <c r="I183" s="25"/>
       <c r="J183" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K183" s="13" t="s">
         <v>437</v>
@@ -11740,8 +11716,8 @@
       <c r="M183" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N183" s="89" t="s">
-        <v>883</v>
+      <c r="N183" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O183" s="11" t="s">
         <v>438</v>
@@ -11755,7 +11731,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="45" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D184" s="63" t="s">
         <v>439</v>
@@ -11766,15 +11742,15 @@
       <c r="F184" s="69">
         <v>300</v>
       </c>
-      <c r="G184" s="73" t="s">
+      <c r="G184" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H184" s="86">
+      <c r="H184" s="82">
         <v>4</v>
       </c>
       <c r="I184" s="23"/>
       <c r="J184" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K184" s="9" t="s">
         <v>21</v>
@@ -11783,8 +11759,8 @@
         <v>4</v>
       </c>
       <c r="M184" s="9"/>
-      <c r="N184" s="89" t="s">
-        <v>883</v>
+      <c r="N184" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O184" s="11" t="s">
         <v>440</v>
@@ -11798,7 +11774,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="45" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D185" s="63" t="s">
         <v>441</v>
@@ -11809,15 +11785,15 @@
       <c r="F185" s="69">
         <v>500</v>
       </c>
-      <c r="G185" s="76" t="s">
+      <c r="G185" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="H185" s="86">
+      <c r="H185" s="82">
         <v>6</v>
       </c>
       <c r="I185" s="26"/>
       <c r="J185" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K185" s="18" t="s">
         <v>41</v>
@@ -11828,8 +11804,8 @@
       <c r="M185" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N185" s="89" t="s">
-        <v>883</v>
+      <c r="N185" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O185" s="11" t="s">
         <v>442</v>
@@ -11843,7 +11819,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="45" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D186" s="63" t="s">
         <v>443</v>
@@ -11854,15 +11830,15 @@
       <c r="F186" s="69">
         <v>500</v>
       </c>
-      <c r="G186" s="73" t="s">
+      <c r="G186" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H186" s="86">
+      <c r="H186" s="82">
         <v>4</v>
       </c>
       <c r="I186" s="23"/>
       <c r="J186" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K186" s="9" t="s">
         <v>21</v>
@@ -11871,8 +11847,8 @@
         <v>4</v>
       </c>
       <c r="M186" s="13"/>
-      <c r="N186" s="89" t="s">
-        <v>883</v>
+      <c r="N186" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O186" s="11" t="s">
         <v>444</v>
@@ -11886,7 +11862,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="45" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D187" s="63" t="s">
         <v>445</v>
@@ -11897,15 +11873,15 @@
       <c r="F187" s="68">
         <v>1000</v>
       </c>
-      <c r="G187" s="73" t="s">
+      <c r="G187" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H187" s="86">
+      <c r="H187" s="82">
         <v>6</v>
       </c>
       <c r="I187" s="23"/>
       <c r="J187" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K187" s="9" t="s">
         <v>3</v>
@@ -11916,8 +11892,8 @@
       <c r="M187" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N187" s="89" t="s">
-        <v>883</v>
+      <c r="N187" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O187" s="11" t="s">
         <v>446</v>
@@ -11942,15 +11918,15 @@
       <c r="F188" s="68">
         <v>1000</v>
       </c>
-      <c r="G188" s="75" t="s">
+      <c r="G188" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H188" s="87">
+      <c r="H188" s="83">
         <v>6</v>
       </c>
       <c r="I188" s="24"/>
       <c r="J188" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K188" s="15" t="s">
         <v>41</v>
@@ -11961,8 +11937,8 @@
       <c r="M188" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="N188" s="89" t="s">
-        <v>883</v>
+      <c r="N188" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O188" s="11" t="s">
         <v>448</v>
@@ -11976,7 +11952,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="45" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D189" s="63" t="s">
         <v>449</v>
@@ -11987,15 +11963,15 @@
       <c r="F189" s="68">
         <v>1000</v>
       </c>
-      <c r="G189" s="75" t="s">
+      <c r="G189" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="H189" s="87">
+      <c r="H189" s="83">
         <v>8</v>
       </c>
       <c r="I189" s="24"/>
       <c r="J189" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K189" s="15" t="s">
         <v>41</v>
@@ -12006,8 +11982,8 @@
       <c r="M189" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N189" s="89" t="s">
-        <v>883</v>
+      <c r="N189" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O189" s="11" t="s">
         <v>450</v>
@@ -12021,7 +11997,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="45" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D190" s="63" t="s">
         <v>451</v>
@@ -12032,15 +12008,15 @@
       <c r="F190" s="68">
         <v>1000</v>
       </c>
-      <c r="G190" s="74" t="s">
+      <c r="G190" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="H190" s="87">
+      <c r="H190" s="83">
         <v>6</v>
       </c>
       <c r="I190" s="25"/>
       <c r="J190" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K190" s="13" t="s">
         <v>21</v>
@@ -12051,8 +12027,8 @@
       <c r="M190" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N190" s="89" t="s">
-        <v>883</v>
+      <c r="N190" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O190" s="11" t="s">
         <v>452</v>
@@ -12066,7 +12042,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="45" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D191" s="63" t="s">
         <v>453</v>
@@ -12077,15 +12053,15 @@
       <c r="F191" s="69">
         <v>500</v>
       </c>
-      <c r="G191" s="76" t="s">
+      <c r="G191" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H191" s="86">
+      <c r="H191" s="82">
         <v>6</v>
       </c>
       <c r="I191" s="26"/>
       <c r="J191" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K191" s="18" t="s">
         <v>123</v>
@@ -12096,8 +12072,8 @@
       <c r="M191" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N191" s="89" t="s">
-        <v>883</v>
+      <c r="N191" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O191" s="11" t="s">
         <v>454</v>
@@ -12111,7 +12087,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="45" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D192" s="63" t="s">
         <v>455</v>
@@ -12122,15 +12098,15 @@
       <c r="F192" s="69">
         <v>300</v>
       </c>
-      <c r="G192" s="73" t="s">
+      <c r="G192" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H192" s="86">
+      <c r="H192" s="82">
         <v>2</v>
       </c>
       <c r="I192" s="23"/>
       <c r="J192" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K192" s="9" t="s">
         <v>3</v>
@@ -12141,8 +12117,8 @@
       <c r="M192" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N192" s="89" t="s">
-        <v>883</v>
+      <c r="N192" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O192" s="11" t="s">
         <v>456</v>
@@ -12167,15 +12143,15 @@
       <c r="F193" s="68">
         <v>1000</v>
       </c>
-      <c r="G193" s="73" t="s">
+      <c r="G193" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H193" s="86">
+      <c r="H193" s="82">
         <v>2</v>
       </c>
       <c r="I193" s="23"/>
       <c r="J193" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K193" s="9" t="s">
         <v>76</v>
@@ -12186,8 +12162,8 @@
       <c r="M193" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N193" s="89" t="s">
-        <v>883</v>
+      <c r="N193" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O193" s="11" t="s">
         <v>458</v>
@@ -12201,7 +12177,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="45" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D194" s="63" t="s">
         <v>459</v>
@@ -12212,15 +12188,15 @@
       <c r="F194" s="69">
         <v>500</v>
       </c>
-      <c r="G194" s="76" t="s">
+      <c r="G194" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="H194" s="86">
+      <c r="H194" s="82">
         <v>4</v>
       </c>
       <c r="I194" s="26"/>
       <c r="J194" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K194" s="18" t="s">
         <v>460</v>
@@ -12231,8 +12207,8 @@
       <c r="M194" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N194" s="89" t="s">
-        <v>883</v>
+      <c r="N194" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O194" s="11" t="s">
         <v>461</v>
@@ -12257,15 +12233,15 @@
       <c r="F195" s="69">
         <v>500</v>
       </c>
-      <c r="G195" s="74" t="s">
+      <c r="G195" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H195" s="87">
+      <c r="H195" s="83">
         <v>6</v>
       </c>
       <c r="I195" s="25"/>
       <c r="J195" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K195" s="13" t="s">
         <v>3</v>
@@ -12276,8 +12252,8 @@
       <c r="M195" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N195" s="89" t="s">
-        <v>883</v>
+      <c r="N195" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O195" s="11" t="s">
         <v>463</v>
@@ -12291,7 +12267,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="45" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D196" s="63" t="s">
         <v>464</v>
@@ -12302,15 +12278,15 @@
       <c r="F196" s="69">
         <v>500</v>
       </c>
-      <c r="G196" s="73" t="s">
+      <c r="G196" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H196" s="86">
+      <c r="H196" s="82">
         <v>2</v>
       </c>
       <c r="I196" s="23"/>
       <c r="J196" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K196" s="9" t="s">
         <v>3</v>
@@ -12321,8 +12297,8 @@
       <c r="M196" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N196" s="89" t="s">
-        <v>883</v>
+      <c r="N196" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O196" s="11" t="s">
         <v>465</v>
@@ -12336,7 +12312,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="45" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D197" s="63" t="s">
         <v>466</v>
@@ -12347,15 +12323,15 @@
       <c r="F197" s="69">
         <v>300</v>
       </c>
-      <c r="G197" s="76" t="s">
+      <c r="G197" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="H197" s="86">
+      <c r="H197" s="82">
         <v>4</v>
       </c>
       <c r="I197" s="26"/>
       <c r="J197" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K197" s="18" t="s">
         <v>66</v>
@@ -12366,8 +12342,8 @@
       <c r="M197" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N197" s="89" t="s">
-        <v>883</v>
+      <c r="N197" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O197" s="11" t="s">
         <v>467</v>
@@ -12381,7 +12357,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="45" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D198" s="63" t="s">
         <v>468</v>
@@ -12392,15 +12368,15 @@
       <c r="F198" s="69">
         <v>500</v>
       </c>
-      <c r="G198" s="74" t="s">
+      <c r="G198" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H198" s="87">
+      <c r="H198" s="83">
         <v>2</v>
       </c>
       <c r="I198" s="25"/>
       <c r="J198" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K198" s="13" t="s">
         <v>3</v>
@@ -12411,8 +12387,8 @@
       <c r="M198" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N198" s="89" t="s">
-        <v>883</v>
+      <c r="N198" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O198" s="11" t="s">
         <v>469</v>
@@ -12426,7 +12402,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="45" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D199" s="63" t="s">
         <v>470</v>
@@ -12437,15 +12413,15 @@
       <c r="F199" s="69">
         <v>500</v>
       </c>
-      <c r="G199" s="73" t="s">
+      <c r="G199" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="H199" s="86">
+      <c r="H199" s="82">
         <v>2</v>
       </c>
       <c r="I199" s="23"/>
       <c r="J199" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K199" s="9" t="s">
         <v>56</v>
@@ -12456,8 +12432,8 @@
       <c r="M199" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N199" s="89" t="s">
-        <v>883</v>
+      <c r="N199" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O199" s="11" t="s">
         <v>471</v>
@@ -12471,7 +12447,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="45" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D200" s="63" t="s">
         <v>472</v>
@@ -12482,15 +12458,15 @@
       <c r="F200" s="69">
         <v>300</v>
       </c>
-      <c r="G200" s="74" t="s">
+      <c r="G200" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H200" s="87">
+      <c r="H200" s="83">
         <v>2</v>
       </c>
       <c r="I200" s="25"/>
       <c r="J200" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K200" s="13" t="s">
         <v>21</v>
@@ -12499,8 +12475,8 @@
         <v>17</v>
       </c>
       <c r="M200" s="9"/>
-      <c r="N200" s="89" t="s">
-        <v>883</v>
+      <c r="N200" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O200" s="11" t="s">
         <v>473</v>
@@ -12514,7 +12490,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="45" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D201" s="63" t="s">
         <v>474</v>
@@ -12525,15 +12501,15 @@
       <c r="F201" s="69">
         <v>500</v>
       </c>
-      <c r="G201" s="73" t="s">
+      <c r="G201" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H201" s="86">
+      <c r="H201" s="82">
         <v>2</v>
       </c>
       <c r="I201" s="23"/>
       <c r="J201" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K201" s="9" t="s">
         <v>21</v>
@@ -12542,8 +12518,8 @@
         <v>17</v>
       </c>
       <c r="M201" s="13"/>
-      <c r="N201" s="89" t="s">
-        <v>883</v>
+      <c r="N201" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O201" s="11" t="s">
         <v>475</v>
@@ -12568,15 +12544,15 @@
       <c r="F202" s="69">
         <v>300</v>
       </c>
-      <c r="G202" s="76" t="s">
+      <c r="G202" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H202" s="86">
+      <c r="H202" s="82">
         <v>6</v>
       </c>
       <c r="I202" s="26"/>
       <c r="J202" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K202" s="18" t="s">
         <v>66</v>
@@ -12587,8 +12563,8 @@
       <c r="M202" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N202" s="89" t="s">
-        <v>883</v>
+      <c r="N202" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O202" s="11" t="s">
         <v>477</v>
@@ -12602,7 +12578,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="45" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D203" s="63" t="s">
         <v>478</v>
@@ -12613,15 +12589,15 @@
       <c r="F203" s="69">
         <v>300</v>
       </c>
-      <c r="G203" s="74" t="s">
+      <c r="G203" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H203" s="87">
+      <c r="H203" s="83">
         <v>2</v>
       </c>
       <c r="I203" s="25"/>
       <c r="J203" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K203" s="13" t="s">
         <v>173</v>
@@ -12632,8 +12608,8 @@
       <c r="M203" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N203" s="89" t="s">
-        <v>883</v>
+      <c r="N203" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O203" s="11" t="s">
         <v>479</v>
@@ -12658,15 +12634,15 @@
       <c r="F204" s="68">
         <v>1000</v>
       </c>
-      <c r="G204" s="75" t="s">
+      <c r="G204" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="H204" s="82">
+      <c r="H204" s="84">
         <v>6</v>
       </c>
       <c r="I204" s="27"/>
       <c r="J204" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K204" s="15" t="s">
         <v>3</v>
@@ -12677,8 +12653,8 @@
       <c r="M204" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N204" s="89" t="s">
-        <v>883</v>
+      <c r="N204" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O204" s="11" t="s">
         <v>481</v>
@@ -12692,7 +12668,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="45" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D205" s="63" t="s">
         <v>482</v>
@@ -12703,15 +12679,15 @@
       <c r="F205" s="69">
         <v>500</v>
       </c>
-      <c r="G205" s="73" t="s">
+      <c r="G205" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H205" s="86">
+      <c r="H205" s="82">
         <v>2</v>
       </c>
       <c r="I205" s="23"/>
       <c r="J205" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K205" s="9" t="s">
         <v>21</v>
@@ -12722,8 +12698,8 @@
       <c r="M205" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N205" s="89" t="s">
-        <v>883</v>
+      <c r="N205" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O205" s="11" t="s">
         <v>483</v>
@@ -12737,7 +12713,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="45" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D206" s="63" t="s">
         <v>484</v>
@@ -12748,15 +12724,15 @@
       <c r="F206" s="69">
         <v>500</v>
       </c>
-      <c r="G206" s="74" t="s">
+      <c r="G206" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H206" s="87">
+      <c r="H206" s="83">
         <v>8</v>
       </c>
       <c r="I206" s="25"/>
       <c r="J206" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K206" s="13" t="s">
         <v>3</v>
@@ -12765,8 +12741,8 @@
         <v>4</v>
       </c>
       <c r="M206" s="9"/>
-      <c r="N206" s="89" t="s">
-        <v>883</v>
+      <c r="N206" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O206" s="11" t="s">
         <v>485</v>
@@ -12791,15 +12767,15 @@
       <c r="F207" s="69">
         <v>500</v>
       </c>
-      <c r="G207" s="74" t="s">
+      <c r="G207" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="H207" s="87">
+      <c r="H207" s="83">
         <v>4</v>
       </c>
       <c r="I207" s="25"/>
       <c r="J207" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K207" s="17" t="s">
         <v>21</v>
@@ -12808,8 +12784,8 @@
         <v>4</v>
       </c>
       <c r="M207" s="13"/>
-      <c r="N207" s="89" t="s">
-        <v>883</v>
+      <c r="N207" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O207" s="11" t="s">
         <v>487</v>
@@ -12834,15 +12810,15 @@
       <c r="F208" s="69">
         <v>500</v>
       </c>
-      <c r="G208" s="75" t="s">
+      <c r="G208" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="H208" s="87">
+      <c r="H208" s="83">
         <v>4</v>
       </c>
       <c r="I208" s="24"/>
       <c r="J208" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K208" s="15" t="s">
         <v>489</v>
@@ -12853,8 +12829,8 @@
       <c r="M208" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N208" s="89" t="s">
-        <v>883</v>
+      <c r="N208" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O208" s="11" t="s">
         <v>490</v>
@@ -12868,7 +12844,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="45" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D209" s="63" t="s">
         <v>488</v>
@@ -12879,15 +12855,15 @@
       <c r="F209" s="69">
         <v>500</v>
       </c>
-      <c r="G209" s="73" t="s">
+      <c r="G209" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="H209" s="86">
+      <c r="H209" s="82">
         <v>4</v>
       </c>
       <c r="I209" s="23"/>
       <c r="J209" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K209" s="9" t="s">
         <v>3</v>
@@ -12898,8 +12874,8 @@
       <c r="M209" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N209" s="89" t="s">
-        <v>883</v>
+      <c r="N209" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O209" s="11" t="s">
         <v>492</v>
@@ -12913,7 +12889,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D210" s="63" t="s">
         <v>493</v>
@@ -12924,15 +12900,15 @@
       <c r="F210" s="69">
         <v>500</v>
       </c>
-      <c r="G210" s="76" t="s">
+      <c r="G210" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="H210" s="86">
+      <c r="H210" s="82">
         <v>4</v>
       </c>
       <c r="I210" s="26"/>
       <c r="J210" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K210" s="18" t="s">
         <v>494</v>
@@ -12943,8 +12919,8 @@
       <c r="M210" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N210" s="89" t="s">
-        <v>883</v>
+      <c r="N210" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O210" s="11" t="s">
         <v>495</v>
@@ -12958,7 +12934,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="45" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D211" s="64" t="s">
         <v>496</v>
@@ -12969,15 +12945,15 @@
       <c r="F211" s="69">
         <v>500</v>
       </c>
-      <c r="G211" s="78" t="s">
+      <c r="G211" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="H211" s="88">
+      <c r="H211" s="85">
         <v>4</v>
       </c>
       <c r="I211" s="30"/>
       <c r="J211" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K211" s="29" t="s">
         <v>66</v>
@@ -12988,8 +12964,8 @@
       <c r="M211" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="N211" s="89" t="s">
-        <v>883</v>
+      <c r="N211" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O211" s="31" t="s">
         <v>497</v>
@@ -13003,7 +12979,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="45" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D212" s="65" t="s">
         <v>498</v>
@@ -13018,13 +12994,13 @@
       <c r="H212" s="34"/>
       <c r="I212" s="34"/>
       <c r="J212" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K212" s="34"/>
       <c r="L212" s="34"/>
       <c r="M212" s="34"/>
-      <c r="N212" s="89" t="s">
-        <v>883</v>
+      <c r="N212" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O212" s="35" t="s">
         <v>499</v>
@@ -13038,7 +13014,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="45" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D213" s="65" t="s">
         <v>500</v>
@@ -13053,13 +13029,13 @@
       <c r="H213" s="34"/>
       <c r="I213" s="34"/>
       <c r="J213" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K213" s="34"/>
       <c r="L213" s="34"/>
       <c r="M213" s="34"/>
-      <c r="N213" s="89" t="s">
-        <v>883</v>
+      <c r="N213" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O213" s="35" t="s">
         <v>501</v>
@@ -13073,7 +13049,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="45" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D214" s="65" t="s">
         <v>502</v>
@@ -13088,13 +13064,13 @@
       <c r="H214" s="34"/>
       <c r="I214" s="34"/>
       <c r="J214" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K214" s="34"/>
       <c r="L214" s="34"/>
       <c r="M214" s="34"/>
-      <c r="N214" s="89" t="s">
-        <v>883</v>
+      <c r="N214" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O214" s="35"/>
       <c r="P214" s="36" t="s">
@@ -13106,7 +13082,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="45" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D215" s="65" t="s">
         <v>503</v>
@@ -13121,13 +13097,13 @@
       <c r="H215" s="34"/>
       <c r="I215" s="34"/>
       <c r="J215" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K215" s="34"/>
       <c r="L215" s="34"/>
       <c r="M215" s="34"/>
-      <c r="N215" s="89" t="s">
-        <v>883</v>
+      <c r="N215" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O215" s="35"/>
       <c r="P215" s="36" t="s">
@@ -13139,7 +13115,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="45" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D216" s="65" t="s">
         <v>504</v>
@@ -13154,13 +13130,13 @@
       <c r="H216" s="34"/>
       <c r="I216" s="34"/>
       <c r="J216" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K216" s="34"/>
       <c r="L216" s="34"/>
       <c r="M216" s="34"/>
-      <c r="N216" s="89" t="s">
-        <v>883</v>
+      <c r="N216" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O216" s="35"/>
       <c r="P216" s="36" t="s">
@@ -13187,13 +13163,13 @@
       <c r="H217" s="34"/>
       <c r="I217" s="34"/>
       <c r="J217" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K217" s="34"/>
       <c r="L217" s="34"/>
       <c r="M217" s="34"/>
-      <c r="N217" s="89" t="s">
-        <v>883</v>
+      <c r="N217" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O217" s="35" t="s">
         <v>506</v>
@@ -13222,13 +13198,13 @@
       <c r="H218" s="34"/>
       <c r="I218" s="34"/>
       <c r="J218" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K218" s="34"/>
       <c r="L218" s="34"/>
       <c r="M218" s="34"/>
-      <c r="N218" s="89" t="s">
-        <v>883</v>
+      <c r="N218" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O218" s="35" t="s">
         <v>508</v>
@@ -13242,7 +13218,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="45" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D219" s="65" t="s">
         <v>509</v>
@@ -13257,13 +13233,13 @@
       <c r="H219" s="34"/>
       <c r="I219" s="34"/>
       <c r="J219" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K219" s="34"/>
       <c r="L219" s="34"/>
       <c r="M219" s="34"/>
-      <c r="N219" s="89" t="s">
-        <v>883</v>
+      <c r="N219" s="78" t="s">
+        <v>879</v>
       </c>
       <c r="O219" s="35" t="s">
         <v>510</v>
@@ -13274,7 +13250,7 @@
     </row>
     <row r="221" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="222" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13390,7 +13366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69AF8A9-A404-47DF-BA62-A1C6519C1F08}">
   <dimension ref="C5:C176"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
